--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_10_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_10_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018707.887317936</v>
+        <v>1983508.358278207</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7317824.504383565</v>
+        <v>7317824.504383566</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.293863480540836</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G2" t="n">
-        <v>14.85476540383092</v>
+        <v>34.46822845646948</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>39.88136420416884</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V2" t="n">
-        <v>12.97887670666013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.1275055910319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>39.88136420416884</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.1275055910319</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>39.88136420416884</v>
@@ -834,38 +834,38 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>35.12750559103189</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.293863480540836</v>
+        <v>34.46822845646948</v>
       </c>
       <c r="G5" t="n">
         <v>39.88136420416884</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T5" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>27.83364211049106</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S6" t="n">
-        <v>35.1275055910319</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>20.35309587319854</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>39.88136420416884</v>
       </c>
       <c r="R7" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>35.12750559103189</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,64 +1132,64 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="C8" t="n">
-        <v>12.97887670666013</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7.293863480540836</v>
-      </c>
       <c r="G8" t="n">
-        <v>14.85476540383092</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>39.88136420416884</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>34.46822845646948</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>35.1275055910319</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>39.88136420416884</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>39.88136420416884</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.12750559103189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="X10" t="n">
+        <v>39.88136420416884</v>
+      </c>
+      <c r="Y10" t="n">
         <v>20.35309587319854</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>40.74267457292103</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.047169115571521</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.4576216421228</v>
@@ -1390,7 +1390,7 @@
         <v>323.8354048385599</v>
       </c>
       <c r="I11" t="n">
-        <v>151.360922994871</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.08749087947825</v>
+        <v>54.08749087947824</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.027538253615</v>
       </c>
       <c r="T11" t="n">
         <v>216.849120379543</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>48.28206170616974</v>
+        <v>48.28206170616973</v>
       </c>
       <c r="S12" t="n">
         <v>155.0764268497958</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.4355505342155</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>181.0525058164137</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.0180861768945</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.5517052836901</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>267.3426518184866</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.4576216421228</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.8354048385599</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.08749087947825</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.027538253615</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.021559997501</v>
       </c>
       <c r="U14" t="n">
         <v>251.3659920756078</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.0620450992619</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>145.2119604559241</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.55170528369</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0180861768945</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>91.13956008492224</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4576216421228</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>128.2093012881049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.027538253615</v>
       </c>
       <c r="T17" t="n">
         <v>216.849120379543</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3659920756078</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>97.24715888281069</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.0620450992619</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0180861768945</v>
+        <v>230.2575127991386</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>247.2760958947051</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>413.4576216421228</v>
       </c>
       <c r="H20" t="n">
-        <v>68.00327058537241</v>
+        <v>323.8354048385599</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>54.08749087947825</v>
       </c>
       <c r="S20" t="n">
-        <v>174.027538253615</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.849120379543</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3659920756078</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>262.2071448825986</v>
       </c>
     </row>
     <row r="21">
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>145.2119604559241</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.4355505342155</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.6547025482174</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0180861768945</v>
       </c>
       <c r="V22" t="n">
-        <v>96.20392898916677</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>166.8333538024117</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>206.5181543832828</v>
+        <v>413.4576216421228</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.8354048385599</v>
       </c>
       <c r="I23" t="n">
-        <v>151.360922994871</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>174.027538253615</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.849120379543</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3659920756078</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>301.3030327631867</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>27.28223375638839</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.4355505342155</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>79.11324570682534</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>34.0778816432147</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>56.21296444504841</v>
       </c>
       <c r="H26" t="n">
         <v>323.8354048385599</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.360922994871</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.08749087947825</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.027538253615</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.849120379543</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3659920756078</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>132.8418310001311</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.81023722553579</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2628783369976</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.0620450992619</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.28223375638839</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>112.2694715273016</v>
+        <v>145.2119604559241</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0180861768945</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.4576216421228</v>
       </c>
       <c r="H29" t="n">
-        <v>144.0006187584516</v>
+        <v>323.8354048385599</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>174.027538253615</v>
       </c>
       <c r="T29" t="n">
-        <v>216.849120379543</v>
+        <v>131.4650813914945</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3659920756078</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.2628783369976</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>247.2760958947052</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>80.01321755770755</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>323.8354048385599</v>
       </c>
       <c r="I32" t="n">
-        <v>25.31695295789118</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>54.08749087947825</v>
       </c>
       <c r="S32" t="n">
-        <v>174.027538253615</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.849120379543</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3659920756078</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -3094,10 +3094,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>10.92406648595943</v>
       </c>
     </row>
     <row r="33">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>27.28223375638839</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6547025482174</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>226.7110800469971</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.1949808167807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>98.29815056553035</v>
       </c>
       <c r="E35" t="n">
-        <v>265.9229643506462</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>413.4576216421228</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.8354048385599</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>174.027538253615</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.849120379543</v>
       </c>
       <c r="U35" t="n">
         <v>251.3659920756078</v>
@@ -3328,7 +3328,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3468,22 +3468,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>27.28223375638839</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.4355505342155</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6547025482174</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.0180861768945</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>181.0525058164137</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.5511200460233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>292.8110827103159</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
@@ -3517,7 +3517,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.4576216421228</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.08749087947825</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>108.4389546255146</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3659920756078</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2628783369976</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,25 +3705,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.28223375638839</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>145.2119604559241</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>211.4355505342155</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6547025482174</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.92169523277835</v>
+        <v>225.1506873031106</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>153.1447837860963</v>
+        <v>13.46289285346463</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -3793,13 +3793,13 @@
         <v>174.027538253615</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.849120379543</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3659920756078</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.22200563683928</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9116500518632</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.28223375638839</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>34.07788164321453</v>
       </c>
       <c r="S43" t="n">
         <v>211.4355505342155</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6547025482174</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0180861768945</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>33.20779086521188</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>256.4397523869275</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.8354048385599</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.360922994871</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3659920756078</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>4.640055231826668</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9116500518632</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0180861768945</v>
+        <v>173.66489177234</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.56286154478983</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C2" t="n">
-        <v>25.56286154478983</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D2" t="n">
-        <v>25.56286154478983</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E2" t="n">
-        <v>25.56286154478983</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="F2" t="n">
-        <v>18.19532267555666</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="G2" t="n">
-        <v>3.190509136333507</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="H2" t="n">
-        <v>3.190509136333507</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="I2" t="n">
-        <v>3.190509136333507</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="J2" t="n">
         <v>3.190509136333507</v>
@@ -4339,7 +4339,7 @@
         <v>42.67305969846066</v>
       </c>
       <c r="M2" t="n">
-        <v>76.54140846029554</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="N2" t="n">
         <v>76.54140846029554</v>
@@ -4363,19 +4363,19 @@
         <v>119.2412505498381</v>
       </c>
       <c r="U2" t="n">
-        <v>119.2412505498381</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="V2" t="n">
-        <v>106.1312740784643</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W2" t="n">
-        <v>65.84706781162706</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="X2" t="n">
-        <v>65.84706781162706</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.56286154478983</v>
+        <v>78.95704428300093</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.0431279368452</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C3" t="n">
         <v>83.75892167000794</v>
@@ -4415,19 +4415,19 @@
         <v>50.06637054494556</v>
       </c>
       <c r="L3" t="n">
-        <v>50.06637054494556</v>
+        <v>89.54892110707272</v>
       </c>
       <c r="M3" t="n">
-        <v>50.06637054494556</v>
+        <v>129.0314716691999</v>
       </c>
       <c r="N3" t="n">
-        <v>80.56035569242104</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="O3" t="n">
-        <v>120.0429062545482</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P3" t="n">
-        <v>120.0429062545482</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q3" t="n">
         <v>159.5254568166754</v>
@@ -4436,25 +4436,25 @@
         <v>159.5254568166754</v>
       </c>
       <c r="S3" t="n">
-        <v>159.5254568166754</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="T3" t="n">
-        <v>159.5254568166754</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="U3" t="n">
-        <v>159.5254568166754</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="V3" t="n">
-        <v>159.5254568166754</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="W3" t="n">
-        <v>159.5254568166754</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="X3" t="n">
-        <v>159.5254568166754</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.5254568166754</v>
+        <v>83.75892167000794</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.5254568166754</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C4" t="n">
-        <v>159.5254568166754</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D4" t="n">
-        <v>119.2412505498381</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E4" t="n">
-        <v>83.75892167000794</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="F4" t="n">
-        <v>43.47471540317073</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="G4" t="n">
-        <v>43.47471540317073</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="H4" t="n">
-        <v>3.190509136333507</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="I4" t="n">
-        <v>3.190509136333507</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="J4" t="n">
         <v>3.190509136333507</v>
@@ -4497,7 +4497,7 @@
         <v>40.2770280630527</v>
       </c>
       <c r="M4" t="n">
-        <v>79.75957862517987</v>
+        <v>79.75957862517984</v>
       </c>
       <c r="N4" t="n">
         <v>119.242129187307</v>
@@ -4512,28 +4512,28 @@
         <v>159.5254568166754</v>
       </c>
       <c r="R4" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S4" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T4" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U4" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V4" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W4" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X4" t="n">
-        <v>159.5254568166754</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.5254568166754</v>
+        <v>78.95704428300093</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.84225427240389</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="C5" t="n">
-        <v>50.84225427240389</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="D5" t="n">
-        <v>50.84225427240389</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="E5" t="n">
-        <v>50.84225427240389</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="F5" t="n">
-        <v>43.47471540317073</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="G5" t="n">
-        <v>3.190509136333507</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="H5" t="n">
-        <v>3.190509136333507</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="I5" t="n">
-        <v>3.190509136333507</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="J5" t="n">
         <v>3.190509136333507</v>
       </c>
       <c r="K5" t="n">
-        <v>3.190509136333507</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L5" t="n">
-        <v>37.05885789816839</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M5" t="n">
-        <v>37.05885789816839</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="N5" t="n">
         <v>76.54140846029554</v>
@@ -4594,25 +4594,25 @@
         <v>159.5254568166754</v>
       </c>
       <c r="S5" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T5" t="n">
         <v>119.2412505498381</v>
       </c>
       <c r="U5" t="n">
-        <v>91.12646053924111</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V5" t="n">
-        <v>91.12646053924111</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W5" t="n">
-        <v>50.84225427240389</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X5" t="n">
-        <v>50.84225427240389</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.84225427240389</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="C6" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="D6" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="E6" t="n">
-        <v>3.190509136333507</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="F6" t="n">
-        <v>3.190509136333507</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="G6" t="n">
-        <v>3.190509136333507</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="H6" t="n">
-        <v>3.190509136333507</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="I6" t="n">
         <v>3.190509136333507</v>
       </c>
       <c r="J6" t="n">
-        <v>10.58381998281841</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K6" t="n">
-        <v>50.06637054494556</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L6" t="n">
-        <v>89.54892110707272</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M6" t="n">
-        <v>89.54892110707272</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="N6" t="n">
+        <v>82.15561026058782</v>
+      </c>
+      <c r="O6" t="n">
         <v>120.0429062545482</v>
-      </c>
-      <c r="O6" t="n">
-        <v>159.5254568166754</v>
       </c>
       <c r="P6" t="n">
         <v>159.5254568166754</v>
@@ -4670,28 +4670,28 @@
         <v>159.5254568166754</v>
       </c>
       <c r="R6" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S6" t="n">
-        <v>124.0431279368452</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T6" t="n">
-        <v>124.0431279368452</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U6" t="n">
-        <v>83.75892167000794</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V6" t="n">
-        <v>43.47471540317073</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W6" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X6" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="C7" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="D7" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="E7" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="F7" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="G7" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="H7" t="n">
-        <v>3.190509136333507</v>
+        <v>98.68256784963759</v>
       </c>
       <c r="I7" t="n">
-        <v>3.190509136333507</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="J7" t="n">
-        <v>3.190509136333507</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="K7" t="n">
         <v>3.190509136333507</v>
@@ -4734,7 +4734,7 @@
         <v>40.2770280630527</v>
       </c>
       <c r="M7" t="n">
-        <v>79.75957862517984</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N7" t="n">
         <v>119.242129187307</v>
@@ -4749,28 +4749,28 @@
         <v>119.2412505498381</v>
       </c>
       <c r="R7" t="n">
-        <v>78.95704428300093</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S7" t="n">
-        <v>38.67283801616371</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T7" t="n">
-        <v>38.67283801616371</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U7" t="n">
-        <v>38.67283801616371</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V7" t="n">
-        <v>38.67283801616371</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W7" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X7" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.95704428300093</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="C8" t="n">
-        <v>65.84706781162706</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="D8" t="n">
-        <v>65.84706781162706</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="E8" t="n">
-        <v>65.84706781162706</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="F8" t="n">
-        <v>58.47952894239388</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="G8" t="n">
-        <v>43.47471540317073</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="H8" t="n">
-        <v>3.190509136333507</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="I8" t="n">
-        <v>3.190509136333507</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="J8" t="n">
         <v>3.190509136333507</v>
@@ -4810,46 +4810,46 @@
         <v>3.190509136333507</v>
       </c>
       <c r="L8" t="n">
-        <v>42.67305969846066</v>
+        <v>37.05885789816839</v>
       </c>
       <c r="M8" t="n">
-        <v>82.15561026058782</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="N8" t="n">
-        <v>121.638160822715</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="O8" t="n">
-        <v>121.638160822715</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P8" t="n">
-        <v>159.5254568166754</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q8" t="n">
         <v>159.5254568166754</v>
       </c>
       <c r="R8" t="n">
-        <v>119.2412505498381</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S8" t="n">
-        <v>119.2412505498381</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T8" t="n">
         <v>119.2412505498381</v>
       </c>
       <c r="U8" t="n">
-        <v>119.2412505498381</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="V8" t="n">
-        <v>119.2412505498381</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="W8" t="n">
-        <v>119.2412505498381</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="X8" t="n">
-        <v>119.2412505498381</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.2412505498381</v>
+        <v>84.42485816956594</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>3.190509136333507</v>
       </c>
       <c r="J9" t="n">
-        <v>10.58381998281841</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K9" t="n">
-        <v>50.06637054494556</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L9" t="n">
-        <v>50.06637054494556</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="M9" t="n">
-        <v>50.06637054494556</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="N9" t="n">
-        <v>50.06637054494556</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="O9" t="n">
-        <v>89.54892110707272</v>
+        <v>121.638160822715</v>
       </c>
       <c r="P9" t="n">
-        <v>120.0429062545482</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q9" t="n">
         <v>159.5254568166754</v>
@@ -4910,22 +4910,22 @@
         <v>159.5254568166754</v>
       </c>
       <c r="S9" t="n">
-        <v>119.2412505498381</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T9" t="n">
-        <v>119.2412505498381</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="U9" t="n">
-        <v>78.95704428300093</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="V9" t="n">
-        <v>78.95704428300093</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="W9" t="n">
-        <v>78.95704428300093</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="X9" t="n">
-        <v>38.67283801616371</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y9" t="n">
         <v>3.190509136333507</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.68256784963759</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="C10" t="n">
-        <v>58.39836158280038</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="D10" t="n">
-        <v>58.39836158280038</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="E10" t="n">
         <v>18.11415531596316</v>
@@ -4971,7 +4971,7 @@
         <v>40.2770280630527</v>
       </c>
       <c r="M10" t="n">
-        <v>79.75957862517986</v>
+        <v>79.75957862517984</v>
       </c>
       <c r="N10" t="n">
         <v>119.242129187307</v>
@@ -4983,7 +4983,7 @@
         <v>159.5254568166754</v>
       </c>
       <c r="Q10" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="R10" t="n">
         <v>119.2412505498381</v>
@@ -4992,22 +4992,22 @@
         <v>119.2412505498381</v>
       </c>
       <c r="T10" t="n">
-        <v>98.68256784963759</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U10" t="n">
-        <v>98.68256784963759</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V10" t="n">
-        <v>98.68256784963759</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W10" t="n">
-        <v>98.68256784963759</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="X10" t="n">
-        <v>98.68256784963759</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="Y10" t="n">
-        <v>98.68256784963759</v>
+        <v>18.11415531596316</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1368.634409166369</v>
+        <v>1185.216308322232</v>
       </c>
       <c r="C11" t="n">
-        <v>1368.634409166369</v>
+        <v>1185.216308322232</v>
       </c>
       <c r="D11" t="n">
-        <v>1368.634409166369</v>
+        <v>1185.216308322232</v>
       </c>
       <c r="E11" t="n">
-        <v>1362.526157534479</v>
+        <v>798.2283934179011</v>
       </c>
       <c r="F11" t="n">
-        <v>951.1182146248414</v>
+        <v>798.2283934179011</v>
       </c>
       <c r="G11" t="n">
-        <v>533.4842533701719</v>
+        <v>380.5944321632315</v>
       </c>
       <c r="H11" t="n">
-        <v>206.3777838362731</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="I11" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="J11" t="n">
-        <v>170.2303003079392</v>
+        <v>133.9921451584362</v>
       </c>
       <c r="K11" t="n">
-        <v>467.4733948906406</v>
+        <v>431.2352397411377</v>
       </c>
       <c r="L11" t="n">
-        <v>888.1988158760037</v>
+        <v>851.9606607265007</v>
       </c>
       <c r="M11" t="n">
-        <v>1335.311050540651</v>
+        <v>1335.31105054065</v>
       </c>
       <c r="N11" t="n">
-        <v>1810.965379996998</v>
+        <v>1810.965379996997</v>
       </c>
       <c r="O11" t="n">
-        <v>2213.983923971035</v>
+        <v>2213.983923971034</v>
       </c>
       <c r="P11" t="n">
-        <v>2521.012133921318</v>
+        <v>2521.012133921317</v>
       </c>
       <c r="Q11" t="n">
-        <v>2674.398131466632</v>
+        <v>2674.398131466631</v>
       </c>
       <c r="R11" t="n">
-        <v>2619.764302295442</v>
+        <v>2619.764302295441</v>
       </c>
       <c r="S11" t="n">
-        <v>2619.764302295442</v>
+        <v>2443.978910120073</v>
       </c>
       <c r="T11" t="n">
-        <v>2400.72478676055</v>
+        <v>2224.939394585181</v>
       </c>
       <c r="U11" t="n">
-        <v>2146.819744259936</v>
+        <v>1971.034352084567</v>
       </c>
       <c r="V11" t="n">
-        <v>2146.819744259936</v>
+        <v>1971.034352084567</v>
       </c>
       <c r="W11" t="n">
-        <v>2146.819744259936</v>
+        <v>1616.963526831481</v>
       </c>
       <c r="X11" t="n">
-        <v>2146.819744259936</v>
+        <v>1616.963526831481</v>
       </c>
       <c r="Y11" t="n">
-        <v>1756.226742491011</v>
+        <v>1226.370525062556</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>978.7022730276767</v>
+        <v>978.7022730276763</v>
       </c>
       <c r="C12" t="n">
-        <v>805.9491579494937</v>
+        <v>805.9491579494933</v>
       </c>
       <c r="D12" t="n">
-        <v>658.3608513084375</v>
+        <v>658.3608513084371</v>
       </c>
       <c r="E12" t="n">
-        <v>500.7513223112921</v>
+        <v>500.7513223112917</v>
       </c>
       <c r="F12" t="n">
-        <v>355.7955323279091</v>
+        <v>355.7955323279086</v>
       </c>
       <c r="G12" t="n">
-        <v>219.1534390051606</v>
+        <v>219.1534390051602</v>
       </c>
       <c r="H12" t="n">
-        <v>114.867707704133</v>
+        <v>114.8677077041329</v>
       </c>
       <c r="I12" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="J12" t="n">
         <v>130.8009443675138</v>
@@ -5126,25 +5126,25 @@
         <v>389.546757620901</v>
       </c>
       <c r="L12" t="n">
-        <v>798.3120417199111</v>
+        <v>798.3120417199112</v>
       </c>
       <c r="M12" t="n">
-        <v>1155.671180407811</v>
+        <v>1328.122042125302</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.902407028506</v>
+        <v>1887.353268745997</v>
       </c>
       <c r="O12" t="n">
-        <v>2158.861706004984</v>
+        <v>2331.312567722475</v>
       </c>
       <c r="P12" t="n">
-        <v>2498.751642498106</v>
+        <v>2671.202504215597</v>
       </c>
       <c r="Q12" t="n">
-        <v>2674.398131466632</v>
+        <v>2674.398131466631</v>
       </c>
       <c r="R12" t="n">
-        <v>2625.628372167471</v>
+        <v>2625.62837216747</v>
       </c>
       <c r="S12" t="n">
         <v>2468.985516763636</v>
@@ -5156,13 +5156,13 @@
         <v>2044.765893661075</v>
       </c>
       <c r="V12" t="n">
-        <v>1810.514650186676</v>
+        <v>1810.514650186675</v>
       </c>
       <c r="W12" t="n">
         <v>1558.000158520009</v>
       </c>
       <c r="X12" t="n">
-        <v>1351.473259925587</v>
+        <v>1351.473259925586</v>
       </c>
       <c r="Y12" t="n">
         <v>1145.744824149237</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="C13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="D13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="E13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="F13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="G13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="H13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="I13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="J13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="K13" t="n">
         <v>110.9455494282443</v>
@@ -5211,40 +5211,40 @@
         <v>387.2278644424964</v>
       </c>
       <c r="N13" t="n">
-        <v>535.8276886349454</v>
+        <v>535.8276886349455</v>
       </c>
       <c r="O13" t="n">
-        <v>657.7470812997516</v>
+        <v>657.7470812997517</v>
       </c>
       <c r="P13" t="n">
-        <v>738.8477025561243</v>
+        <v>738.8477025561244</v>
       </c>
       <c r="Q13" t="n">
-        <v>738.8477025561243</v>
+        <v>738.8477025561244</v>
       </c>
       <c r="R13" t="n">
-        <v>738.8477025561243</v>
+        <v>738.8477025561244</v>
       </c>
       <c r="S13" t="n">
-        <v>525.2764393902501</v>
+        <v>738.8477025561244</v>
       </c>
       <c r="T13" t="n">
-        <v>342.3951203837716</v>
+        <v>738.8477025561244</v>
       </c>
       <c r="U13" t="n">
-        <v>53.48796262933264</v>
+        <v>449.9405448016855</v>
       </c>
       <c r="V13" t="n">
-        <v>53.48796262933264</v>
+        <v>194.4492810977065</v>
       </c>
       <c r="W13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="X13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.48796262933264</v>
+        <v>53.48796262933263</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1815.466191729389</v>
+        <v>424.1799784666484</v>
       </c>
       <c r="C14" t="n">
-        <v>1545.423109084453</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="D14" t="n">
-        <v>1185.216308322232</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="E14" t="n">
-        <v>798.2283934179011</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="F14" t="n">
-        <v>798.2283934179011</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="G14" t="n">
-        <v>380.5944321632315</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="H14" t="n">
         <v>53.48796262933263</v>
@@ -5284,46 +5284,46 @@
         <v>467.4733948906406</v>
       </c>
       <c r="L14" t="n">
-        <v>851.9606607265011</v>
+        <v>888.1988158760037</v>
       </c>
       <c r="M14" t="n">
-        <v>1335.31105054065</v>
+        <v>1371.549205690153</v>
       </c>
       <c r="N14" t="n">
-        <v>1810.965379996997</v>
+        <v>1847.2035351465</v>
       </c>
       <c r="O14" t="n">
-        <v>2213.983923971034</v>
+        <v>2250.222079120536</v>
       </c>
       <c r="P14" t="n">
-        <v>2521.012133921317</v>
+        <v>2557.25028907082</v>
       </c>
       <c r="Q14" t="n">
         <v>2674.398131466631</v>
       </c>
       <c r="R14" t="n">
-        <v>2619.764302295441</v>
+        <v>2674.398131466631</v>
       </c>
       <c r="S14" t="n">
-        <v>2443.978910120073</v>
+        <v>2674.398131466631</v>
       </c>
       <c r="T14" t="n">
-        <v>2443.978910120073</v>
+        <v>2516.80059611562</v>
       </c>
       <c r="U14" t="n">
-        <v>2190.073867619459</v>
+        <v>2262.895553615006</v>
       </c>
       <c r="V14" t="n">
-        <v>2190.073867619459</v>
+        <v>1931.043814703371</v>
       </c>
       <c r="W14" t="n">
-        <v>2190.073867619459</v>
+        <v>1576.972989450285</v>
       </c>
       <c r="X14" t="n">
-        <v>1815.466191729389</v>
+        <v>1202.365313560215</v>
       </c>
       <c r="Y14" t="n">
-        <v>1815.466191729389</v>
+        <v>811.7723117912899</v>
       </c>
     </row>
     <row r="15">
@@ -5336,19 +5336,19 @@
         <v>978.7022730276763</v>
       </c>
       <c r="C15" t="n">
-        <v>805.9491579494933</v>
+        <v>805.9491579494934</v>
       </c>
       <c r="D15" t="n">
-        <v>658.3608513084371</v>
+        <v>658.3608513084373</v>
       </c>
       <c r="E15" t="n">
-        <v>500.7513223112917</v>
+        <v>500.751322311292</v>
       </c>
       <c r="F15" t="n">
-        <v>355.7955323279086</v>
+        <v>355.7955323279089</v>
       </c>
       <c r="G15" t="n">
-        <v>219.1534390051602</v>
+        <v>219.1534390051606</v>
       </c>
       <c r="H15" t="n">
         <v>114.8677077041329</v>
@@ -5357,16 +5357,16 @@
         <v>53.48796262933263</v>
       </c>
       <c r="J15" t="n">
-        <v>130.8009443675138</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="K15" t="n">
-        <v>389.5467576209009</v>
+        <v>217.0958959034093</v>
       </c>
       <c r="L15" t="n">
-        <v>798.3120417199111</v>
+        <v>625.8611800024195</v>
       </c>
       <c r="M15" t="n">
-        <v>1328.122042125302</v>
+        <v>1155.671180407811</v>
       </c>
       <c r="N15" t="n">
         <v>1714.902407028506</v>
@@ -5390,13 +5390,13 @@
         <v>2271.642658254771</v>
       </c>
       <c r="U15" t="n">
-        <v>2044.765893661075</v>
+        <v>2044.765893661074</v>
       </c>
       <c r="V15" t="n">
         <v>1810.514650186675</v>
       </c>
       <c r="W15" t="n">
-        <v>1558.000158520009</v>
+        <v>1558.000158520008</v>
       </c>
       <c r="X15" t="n">
         <v>1351.473259925586</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.1263920225265</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="C16" t="n">
-        <v>211.1263920225265</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="D16" t="n">
-        <v>211.1263920225265</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="E16" t="n">
-        <v>211.1263920225265</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="F16" t="n">
-        <v>211.1263920225265</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="G16" t="n">
-        <v>211.1263920225265</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="H16" t="n">
         <v>53.48796262933263</v>
@@ -5460,28 +5460,28 @@
         <v>738.8477025561243</v>
       </c>
       <c r="R16" t="n">
-        <v>592.1689546208474</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="S16" t="n">
-        <v>592.1689546208474</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="T16" t="n">
-        <v>592.1689546208474</v>
+        <v>597.8863840877506</v>
       </c>
       <c r="U16" t="n">
-        <v>592.1689546208474</v>
+        <v>308.9792263333116</v>
       </c>
       <c r="V16" t="n">
-        <v>592.1689546208474</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="W16" t="n">
-        <v>303.1865537244681</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="X16" t="n">
-        <v>211.1263920225265</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="Y16" t="n">
-        <v>211.1263920225265</v>
+        <v>53.48796262933263</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1358.306199361108</v>
+        <v>811.1678933709793</v>
       </c>
       <c r="C17" t="n">
-        <v>987.6141835237923</v>
+        <v>440.4758775336634</v>
       </c>
       <c r="D17" t="n">
-        <v>987.6141835237923</v>
+        <v>440.4758775336634</v>
       </c>
       <c r="E17" t="n">
-        <v>600.6262686194616</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="F17" t="n">
-        <v>600.6262686194616</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="G17" t="n">
-        <v>182.9923073647921</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="H17" t="n">
-        <v>182.9923073647921</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="I17" t="n">
         <v>53.48796262933263</v>
@@ -5518,7 +5518,7 @@
         <v>170.2303003079392</v>
       </c>
       <c r="K17" t="n">
-        <v>467.4733948906406</v>
+        <v>431.2352397411382</v>
       </c>
       <c r="L17" t="n">
         <v>851.9606607265011</v>
@@ -5542,25 +5542,25 @@
         <v>2674.398131466631</v>
       </c>
       <c r="S17" t="n">
-        <v>2674.398131466631</v>
+        <v>2498.612739291263</v>
       </c>
       <c r="T17" t="n">
-        <v>2455.358615931739</v>
+        <v>2279.573223756371</v>
       </c>
       <c r="U17" t="n">
-        <v>2455.358615931739</v>
+        <v>2025.668181255757</v>
       </c>
       <c r="V17" t="n">
-        <v>2123.506877020103</v>
+        <v>1927.438727838776</v>
       </c>
       <c r="W17" t="n">
-        <v>2123.506877020103</v>
+        <v>1573.367902585691</v>
       </c>
       <c r="X17" t="n">
-        <v>1748.899201130033</v>
+        <v>1198.760226695621</v>
       </c>
       <c r="Y17" t="n">
-        <v>1358.306199361108</v>
+        <v>1198.760226695621</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.48796262933263</v>
       </c>
       <c r="J18" t="n">
-        <v>130.8009443675138</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="K18" t="n">
-        <v>389.5467576209009</v>
+        <v>312.2337758827197</v>
       </c>
       <c r="L18" t="n">
-        <v>798.3120417199111</v>
+        <v>720.9990599817299</v>
       </c>
       <c r="M18" t="n">
-        <v>1328.122042125302</v>
+        <v>1250.809060387121</v>
       </c>
       <c r="N18" t="n">
-        <v>1714.902407028506</v>
+        <v>1810.040287007816</v>
       </c>
       <c r="O18" t="n">
-        <v>2158.861706004984</v>
+        <v>2253.999585984294</v>
       </c>
       <c r="P18" t="n">
-        <v>2498.751642498106</v>
+        <v>2593.889522477416</v>
       </c>
       <c r="Q18" t="n">
         <v>2674.398131466631</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.48796262933263</v>
+        <v>359.5856083590913</v>
       </c>
       <c r="C19" t="n">
-        <v>53.48796262933263</v>
+        <v>359.5856083590913</v>
       </c>
       <c r="D19" t="n">
-        <v>53.48796262933263</v>
+        <v>359.5856083590913</v>
       </c>
       <c r="E19" t="n">
-        <v>53.48796262933263</v>
+        <v>211.1263920225265</v>
       </c>
       <c r="F19" t="n">
-        <v>53.48796262933263</v>
+        <v>211.1263920225265</v>
       </c>
       <c r="G19" t="n">
-        <v>53.48796262933263</v>
+        <v>211.1263920225265</v>
       </c>
       <c r="H19" t="n">
         <v>53.48796262933263</v>
@@ -5706,19 +5706,19 @@
         <v>592.1689546208474</v>
       </c>
       <c r="U19" t="n">
-        <v>303.2617968664085</v>
+        <v>359.5856083590913</v>
       </c>
       <c r="V19" t="n">
-        <v>303.2617968664085</v>
+        <v>359.5856083590913</v>
       </c>
       <c r="W19" t="n">
-        <v>53.48796262933263</v>
+        <v>359.5856083590913</v>
       </c>
       <c r="X19" t="n">
-        <v>53.48796262933263</v>
+        <v>359.5856083590913</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.48796262933263</v>
+        <v>359.5856083590913</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>910.5041120297749</v>
+        <v>1967.316267069185</v>
       </c>
       <c r="C20" t="n">
-        <v>539.8120961924591</v>
+        <v>1596.624251231869</v>
       </c>
       <c r="D20" t="n">
-        <v>539.8120961924591</v>
+        <v>1596.624251231869</v>
       </c>
       <c r="E20" t="n">
-        <v>539.8120961924591</v>
+        <v>1209.636336327538</v>
       </c>
       <c r="F20" t="n">
-        <v>539.8120961924591</v>
+        <v>798.2283934179011</v>
       </c>
       <c r="G20" t="n">
-        <v>122.1781349377896</v>
+        <v>380.5944321632315</v>
       </c>
       <c r="H20" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="I20" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="J20" t="n">
-        <v>170.2303003079392</v>
+        <v>133.9921451584367</v>
       </c>
       <c r="K20" t="n">
-        <v>467.4733948906406</v>
+        <v>431.2352397411382</v>
       </c>
       <c r="L20" t="n">
-        <v>888.1988158760037</v>
+        <v>851.9606607265011</v>
       </c>
       <c r="M20" t="n">
-        <v>1371.549205690153</v>
+        <v>1335.31105054065</v>
       </c>
       <c r="N20" t="n">
         <v>1810.965379996997</v>
@@ -5779,25 +5779,25 @@
         <v>2619.764302295441</v>
       </c>
       <c r="S20" t="n">
-        <v>2443.978910120072</v>
+        <v>2619.764302295441</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.93939458518</v>
+        <v>2619.764302295441</v>
       </c>
       <c r="U20" t="n">
-        <v>1971.034352084566</v>
+        <v>2619.764302295441</v>
       </c>
       <c r="V20" t="n">
-        <v>1639.182613172931</v>
+        <v>2619.764302295441</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.111787919845</v>
+        <v>2619.764302295441</v>
       </c>
       <c r="X20" t="n">
-        <v>910.5041120297749</v>
+        <v>2619.764302295441</v>
       </c>
       <c r="Y20" t="n">
-        <v>910.5041120297749</v>
+        <v>2354.908600393826</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>978.7022730276763</v>
       </c>
       <c r="C21" t="n">
-        <v>805.9491579494934</v>
+        <v>805.9491579494933</v>
       </c>
       <c r="D21" t="n">
-        <v>658.3608513084373</v>
+        <v>658.3608513084371</v>
       </c>
       <c r="E21" t="n">
-        <v>500.751322311292</v>
+        <v>500.7513223112917</v>
       </c>
       <c r="F21" t="n">
-        <v>355.7955323279089</v>
+        <v>355.7955323279086</v>
       </c>
       <c r="G21" t="n">
-        <v>219.1534390051605</v>
+        <v>219.1534390051602</v>
       </c>
       <c r="H21" t="n">
         <v>114.8677077041329</v>
       </c>
       <c r="I21" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="J21" t="n">
         <v>130.8009443675138</v>
@@ -5846,7 +5846,7 @@
         <v>1887.353268745997</v>
       </c>
       <c r="O21" t="n">
-        <v>2158.861706004984</v>
+        <v>2331.312567722475</v>
       </c>
       <c r="P21" t="n">
         <v>2498.751642498106</v>
@@ -5864,13 +5864,13 @@
         <v>2271.642658254771</v>
       </c>
       <c r="U21" t="n">
-        <v>2044.765893661074</v>
+        <v>2044.765893661075</v>
       </c>
       <c r="V21" t="n">
         <v>1810.514650186675</v>
       </c>
       <c r="W21" t="n">
-        <v>1558.000158520008</v>
+        <v>1558.000158520009</v>
       </c>
       <c r="X21" t="n">
         <v>1351.473259925586</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="C22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="D22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="E22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="F22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="G22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="H22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="I22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="J22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="K22" t="n">
         <v>110.9455494282443</v>
       </c>
       <c r="L22" t="n">
-        <v>240.2750937125217</v>
+        <v>240.2750937125218</v>
       </c>
       <c r="M22" t="n">
-        <v>387.2278644424963</v>
+        <v>387.2278644424964</v>
       </c>
       <c r="N22" t="n">
         <v>535.8276886349454</v>
@@ -5934,28 +5934,28 @@
         <v>738.8477025561243</v>
       </c>
       <c r="R22" t="n">
-        <v>592.1689546208474</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="S22" t="n">
-        <v>378.5976914549732</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="T22" t="n">
-        <v>150.6636484769758</v>
+        <v>510.9136595781269</v>
       </c>
       <c r="U22" t="n">
-        <v>150.6636484769758</v>
+        <v>222.0065018236879</v>
       </c>
       <c r="V22" t="n">
-        <v>53.48796262933261</v>
+        <v>222.0065018236879</v>
       </c>
       <c r="W22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="X22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933263</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>775.9283351319685</v>
+        <v>1957.570606180814</v>
       </c>
       <c r="C23" t="n">
-        <v>775.9283351319685</v>
+        <v>1957.570606180814</v>
       </c>
       <c r="D23" t="n">
-        <v>415.7215343697479</v>
+        <v>1597.363805418594</v>
       </c>
       <c r="E23" t="n">
-        <v>415.7215343697479</v>
+        <v>1210.375890514263</v>
       </c>
       <c r="F23" t="n">
-        <v>415.7215343697479</v>
+        <v>798.9679476046256</v>
       </c>
       <c r="G23" t="n">
-        <v>207.1173380229976</v>
+        <v>381.3339863499561</v>
       </c>
       <c r="H23" t="n">
-        <v>207.1173380229976</v>
+        <v>54.22751681605715</v>
       </c>
       <c r="I23" t="n">
         <v>54.22751681605715</v>
       </c>
       <c r="J23" t="n">
-        <v>170.9698544946639</v>
+        <v>170.9698544946637</v>
       </c>
       <c r="K23" t="n">
-        <v>468.2129490773655</v>
+        <v>468.2129490773652</v>
       </c>
       <c r="L23" t="n">
-        <v>888.9383700627284</v>
+        <v>888.9383700627279</v>
       </c>
       <c r="M23" t="n">
         <v>1372.288759876877</v>
@@ -6019,22 +6019,22 @@
         <v>2480.956619456299</v>
       </c>
       <c r="T23" t="n">
-        <v>2480.956619456299</v>
+        <v>2261.917103921407</v>
       </c>
       <c r="U23" t="n">
-        <v>2227.051576955685</v>
+        <v>2261.917103921407</v>
       </c>
       <c r="V23" t="n">
-        <v>1895.199838044049</v>
+        <v>1957.570606180814</v>
       </c>
       <c r="W23" t="n">
-        <v>1541.129012790964</v>
+        <v>1957.570606180814</v>
       </c>
       <c r="X23" t="n">
-        <v>1166.521336900894</v>
+        <v>1957.570606180814</v>
       </c>
       <c r="Y23" t="n">
-        <v>775.9283351319685</v>
+        <v>1957.570606180814</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>54.22751681605715</v>
       </c>
       <c r="J24" t="n">
-        <v>131.5404985542384</v>
+        <v>54.22751681605715</v>
       </c>
       <c r="K24" t="n">
-        <v>390.2863118076255</v>
+        <v>217.8354500901337</v>
       </c>
       <c r="L24" t="n">
-        <v>799.0515959066356</v>
+        <v>626.600734189144</v>
       </c>
       <c r="M24" t="n">
-        <v>1328.861596312027</v>
+        <v>1156.410734594535</v>
       </c>
       <c r="N24" t="n">
-        <v>1888.092822932722</v>
+        <v>1715.64196121523</v>
       </c>
       <c r="O24" t="n">
-        <v>2332.0521219092</v>
+        <v>2159.601260191708</v>
       </c>
       <c r="P24" t="n">
         <v>2499.49119668483</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.22751681605715</v>
+        <v>202.686733152622</v>
       </c>
       <c r="C25" t="n">
-        <v>54.22751681605715</v>
+        <v>202.686733152622</v>
       </c>
       <c r="D25" t="n">
-        <v>54.22751681605715</v>
+        <v>202.686733152622</v>
       </c>
       <c r="E25" t="n">
         <v>54.22751681605715</v>
@@ -6168,31 +6168,31 @@
         <v>739.5872567428489</v>
       </c>
       <c r="Q25" t="n">
-        <v>712.0294448677091</v>
+        <v>739.5872567428489</v>
       </c>
       <c r="R25" t="n">
-        <v>712.0294448677091</v>
+        <v>739.5872567428489</v>
       </c>
       <c r="S25" t="n">
-        <v>712.0294448677091</v>
+        <v>526.0159935769748</v>
       </c>
       <c r="T25" t="n">
-        <v>712.0294448677091</v>
+        <v>526.0159935769748</v>
       </c>
       <c r="U25" t="n">
-        <v>423.1222871132701</v>
+        <v>237.1088358225358</v>
       </c>
       <c r="V25" t="n">
-        <v>423.1222871132701</v>
+        <v>237.1088358225358</v>
       </c>
       <c r="W25" t="n">
-        <v>134.1398862168908</v>
+        <v>237.1088358225358</v>
       </c>
       <c r="X25" t="n">
-        <v>54.22751681605715</v>
+        <v>237.1088358225358</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.22751681605715</v>
+        <v>202.686733152622</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1499.220717853823</v>
+        <v>1338.199295390164</v>
       </c>
       <c r="C26" t="n">
-        <v>1128.528702016507</v>
+        <v>1338.199295390164</v>
       </c>
       <c r="D26" t="n">
-        <v>768.3219012542869</v>
+        <v>977.992494627943</v>
       </c>
       <c r="E26" t="n">
-        <v>381.3339863499561</v>
+        <v>591.0045797236121</v>
       </c>
       <c r="F26" t="n">
-        <v>381.3339863499561</v>
+        <v>591.0045797236121</v>
       </c>
       <c r="G26" t="n">
-        <v>381.3339863499561</v>
+        <v>534.2238075568965</v>
       </c>
       <c r="H26" t="n">
-        <v>54.22751681605716</v>
+        <v>207.1173380229976</v>
       </c>
       <c r="I26" t="n">
         <v>54.22751681605716</v>
@@ -6229,7 +6229,7 @@
         <v>170.9698544946641</v>
       </c>
       <c r="K26" t="n">
-        <v>468.2129490773655</v>
+        <v>468.2129490773657</v>
       </c>
       <c r="L26" t="n">
         <v>888.9383700627286</v>
@@ -6238,7 +6238,7 @@
         <v>1372.288759876878</v>
       </c>
       <c r="N26" t="n">
-        <v>1847.943089333225</v>
+        <v>1847.943089333224</v>
       </c>
       <c r="O26" t="n">
         <v>2250.961633307261</v>
@@ -6250,28 +6250,28 @@
         <v>2711.375840802858</v>
       </c>
       <c r="R26" t="n">
-        <v>2656.742011631668</v>
+        <v>2711.375840802858</v>
       </c>
       <c r="S26" t="n">
-        <v>2480.956619456299</v>
+        <v>2711.375840802858</v>
       </c>
       <c r="T26" t="n">
-        <v>2261.917103921407</v>
+        <v>2711.375840802858</v>
       </c>
       <c r="U26" t="n">
-        <v>2008.012061420794</v>
+        <v>2457.470798302244</v>
       </c>
       <c r="V26" t="n">
-        <v>2008.012061420794</v>
+        <v>2457.470798302244</v>
       </c>
       <c r="W26" t="n">
-        <v>2008.012061420794</v>
+        <v>2103.399973049159</v>
       </c>
       <c r="X26" t="n">
-        <v>1633.404385530723</v>
+        <v>1728.792297159089</v>
       </c>
       <c r="Y26" t="n">
-        <v>1499.220717853823</v>
+        <v>1338.199295390164</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>54.22751681605716</v>
       </c>
       <c r="J27" t="n">
-        <v>54.22751681605716</v>
+        <v>131.5404985542384</v>
       </c>
       <c r="K27" t="n">
-        <v>312.9733300694443</v>
+        <v>390.2863118076255</v>
       </c>
       <c r="L27" t="n">
-        <v>626.6007341891444</v>
+        <v>799.0515959066356</v>
       </c>
       <c r="M27" t="n">
-        <v>1156.410734594536</v>
+        <v>1328.861596312027</v>
       </c>
       <c r="N27" t="n">
         <v>1715.641961215231</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.22751681605716</v>
+        <v>592.908508807572</v>
       </c>
       <c r="C28" t="n">
-        <v>54.22751681605716</v>
+        <v>592.908508807572</v>
       </c>
       <c r="D28" t="n">
-        <v>54.22751681605716</v>
+        <v>592.908508807572</v>
       </c>
       <c r="E28" t="n">
-        <v>54.22751681605716</v>
+        <v>528.4537237312733</v>
       </c>
       <c r="F28" t="n">
-        <v>54.22751681605716</v>
+        <v>380.8183485698546</v>
       </c>
       <c r="G28" t="n">
-        <v>54.22751681605716</v>
+        <v>211.865946209251</v>
       </c>
       <c r="H28" t="n">
         <v>54.22751681605716</v>
@@ -6405,31 +6405,31 @@
         <v>739.5872567428489</v>
       </c>
       <c r="Q28" t="n">
-        <v>712.0294448677091</v>
+        <v>739.5872567428489</v>
       </c>
       <c r="R28" t="n">
-        <v>598.6259382744752</v>
+        <v>592.908508807572</v>
       </c>
       <c r="S28" t="n">
-        <v>598.6259382744752</v>
+        <v>592.908508807572</v>
       </c>
       <c r="T28" t="n">
-        <v>598.6259382744752</v>
+        <v>592.908508807572</v>
       </c>
       <c r="U28" t="n">
-        <v>309.7187805200361</v>
+        <v>592.908508807572</v>
       </c>
       <c r="V28" t="n">
-        <v>54.22751681605716</v>
+        <v>592.908508807572</v>
       </c>
       <c r="W28" t="n">
-        <v>54.22751681605716</v>
+        <v>592.908508807572</v>
       </c>
       <c r="X28" t="n">
-        <v>54.22751681605716</v>
+        <v>592.908508807572</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.22751681605716</v>
+        <v>592.908508807572</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>559.8894880413602</v>
+        <v>1957.570606180814</v>
       </c>
       <c r="C29" t="n">
-        <v>559.8894880413602</v>
+        <v>1957.570606180814</v>
       </c>
       <c r="D29" t="n">
-        <v>199.6826872791396</v>
+        <v>1597.363805418594</v>
       </c>
       <c r="E29" t="n">
-        <v>199.6826872791396</v>
+        <v>1210.375890514263</v>
       </c>
       <c r="F29" t="n">
-        <v>199.6826872791396</v>
+        <v>798.9679476046256</v>
       </c>
       <c r="G29" t="n">
-        <v>199.6826872791396</v>
+        <v>381.3339863499561</v>
       </c>
       <c r="H29" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="I29" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="J29" t="n">
         <v>170.9698544946641</v>
       </c>
       <c r="K29" t="n">
-        <v>468.2129490773657</v>
+        <v>468.2129490773655</v>
       </c>
       <c r="L29" t="n">
-        <v>888.9383700627287</v>
+        <v>888.9383700627286</v>
       </c>
       <c r="M29" t="n">
         <v>1372.288759876878</v>
@@ -6481,7 +6481,7 @@
         <v>2250.961633307261</v>
       </c>
       <c r="P29" t="n">
-        <v>2557.989843257544</v>
+        <v>2557.989843257545</v>
       </c>
       <c r="Q29" t="n">
         <v>2711.375840802858</v>
@@ -6493,22 +6493,22 @@
         <v>2480.956619456299</v>
       </c>
       <c r="T29" t="n">
-        <v>2261.917103921407</v>
+        <v>2348.163607949739</v>
       </c>
       <c r="U29" t="n">
-        <v>2008.012061420793</v>
+        <v>2348.163607949739</v>
       </c>
       <c r="V29" t="n">
-        <v>1676.160322509157</v>
+        <v>2348.163607949739</v>
       </c>
       <c r="W29" t="n">
-        <v>1322.089497256072</v>
+        <v>2348.163607949739</v>
       </c>
       <c r="X29" t="n">
-        <v>947.4818213660017</v>
+        <v>2348.163607949739</v>
       </c>
       <c r="Y29" t="n">
-        <v>947.4818213660017</v>
+        <v>1957.570606180814</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.4418272144007</v>
+        <v>979.441827214401</v>
       </c>
       <c r="C30" t="n">
-        <v>806.6887121362179</v>
+        <v>806.6887121362181</v>
       </c>
       <c r="D30" t="n">
-        <v>659.1004054951618</v>
+        <v>659.1004054951619</v>
       </c>
       <c r="E30" t="n">
-        <v>501.4908764980165</v>
+        <v>501.4908764980166</v>
       </c>
       <c r="F30" t="n">
-        <v>356.5350865146334</v>
+        <v>356.5350865146335</v>
       </c>
       <c r="G30" t="n">
         <v>219.8929931918851</v>
@@ -6539,40 +6539,40 @@
         <v>115.6072618908574</v>
       </c>
       <c r="I30" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="J30" t="n">
-        <v>54.22751681605715</v>
+        <v>131.5404985542384</v>
       </c>
       <c r="K30" t="n">
-        <v>312.9733300694443</v>
+        <v>390.2863118076255</v>
       </c>
       <c r="L30" t="n">
-        <v>626.600734189144</v>
+        <v>799.0515959066356</v>
       </c>
       <c r="M30" t="n">
-        <v>1156.410734594535</v>
+        <v>1328.861596312027</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.64196121523</v>
+        <v>1888.092822932722</v>
       </c>
       <c r="O30" t="n">
-        <v>2159.601260191708</v>
+        <v>2332.0521219092</v>
       </c>
       <c r="P30" t="n">
-        <v>2499.49119668483</v>
+        <v>2671.942058402322</v>
       </c>
       <c r="Q30" t="n">
         <v>2675.137685653356</v>
       </c>
       <c r="R30" t="n">
-        <v>2626.367926354194</v>
+        <v>2626.367926354195</v>
       </c>
       <c r="S30" t="n">
-        <v>2469.72507095036</v>
+        <v>2469.725070950361</v>
       </c>
       <c r="T30" t="n">
-        <v>2272.382212441495</v>
+        <v>2272.382212441496</v>
       </c>
       <c r="U30" t="n">
         <v>2045.505447847799</v>
@@ -6587,7 +6587,7 @@
         <v>1352.212814112311</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.484378335961</v>
+        <v>1146.484378335962</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.22751681605715</v>
+        <v>223.1799191766608</v>
       </c>
       <c r="C31" t="n">
-        <v>54.22751681605715</v>
+        <v>223.1799191766608</v>
       </c>
       <c r="D31" t="n">
-        <v>54.22751681605715</v>
+        <v>223.1799191766608</v>
       </c>
       <c r="E31" t="n">
-        <v>54.22751681605715</v>
+        <v>223.1799191766608</v>
       </c>
       <c r="F31" t="n">
-        <v>54.22751681605715</v>
+        <v>223.1799191766608</v>
       </c>
       <c r="G31" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="H31" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="I31" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="J31" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="K31" t="n">
         <v>111.6851036149689</v>
@@ -6660,13 +6660,13 @@
         <v>304.0013510531331</v>
       </c>
       <c r="W31" t="n">
-        <v>54.22751681605715</v>
+        <v>304.0013510531331</v>
       </c>
       <c r="X31" t="n">
-        <v>54.22751681605715</v>
+        <v>223.1799191766608</v>
       </c>
       <c r="Y31" t="n">
-        <v>54.22751681605715</v>
+        <v>223.1799191766608</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1575.994539756686</v>
+        <v>1112.232802949492</v>
       </c>
       <c r="C32" t="n">
-        <v>1205.30252391937</v>
+        <v>741.5407871121768</v>
       </c>
       <c r="D32" t="n">
-        <v>1205.30252391937</v>
+        <v>381.3339863499561</v>
       </c>
       <c r="E32" t="n">
-        <v>818.314609015039</v>
+        <v>381.3339863499561</v>
       </c>
       <c r="F32" t="n">
-        <v>406.9066661054017</v>
+        <v>381.3339863499561</v>
       </c>
       <c r="G32" t="n">
-        <v>406.9066661054017</v>
+        <v>381.3339863499561</v>
       </c>
       <c r="H32" t="n">
-        <v>79.80019657150279</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="I32" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="J32" t="n">
         <v>170.9698544946641</v>
       </c>
       <c r="K32" t="n">
-        <v>468.2129490773657</v>
+        <v>468.2129490773655</v>
       </c>
       <c r="L32" t="n">
-        <v>888.9383700627287</v>
+        <v>888.9383700627286</v>
       </c>
       <c r="M32" t="n">
         <v>1372.288759876878</v>
@@ -6718,7 +6718,7 @@
         <v>2250.961633307261</v>
       </c>
       <c r="P32" t="n">
-        <v>2557.989843257544</v>
+        <v>2557.989843257545</v>
       </c>
       <c r="Q32" t="n">
         <v>2711.375840802858</v>
@@ -6727,25 +6727,25 @@
         <v>2656.742011631668</v>
       </c>
       <c r="S32" t="n">
-        <v>2480.956619456299</v>
+        <v>2656.742011631668</v>
       </c>
       <c r="T32" t="n">
-        <v>2261.917103921407</v>
+        <v>2437.702496096776</v>
       </c>
       <c r="U32" t="n">
-        <v>2261.917103921407</v>
+        <v>2183.797453596162</v>
       </c>
       <c r="V32" t="n">
-        <v>1930.065365009771</v>
+        <v>1851.945714684526</v>
       </c>
       <c r="W32" t="n">
-        <v>1575.994539756686</v>
+        <v>1497.874889431441</v>
       </c>
       <c r="X32" t="n">
-        <v>1575.994539756686</v>
+        <v>1123.267213541371</v>
       </c>
       <c r="Y32" t="n">
-        <v>1575.994539756686</v>
+        <v>1112.232802949492</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.4418272144007</v>
+        <v>979.441827214401</v>
       </c>
       <c r="C33" t="n">
-        <v>806.6887121362179</v>
+        <v>806.6887121362181</v>
       </c>
       <c r="D33" t="n">
-        <v>659.1004054951618</v>
+        <v>659.1004054951619</v>
       </c>
       <c r="E33" t="n">
-        <v>501.4908764980165</v>
+        <v>501.4908764980166</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5350865146334</v>
+        <v>356.5350865146335</v>
       </c>
       <c r="G33" t="n">
         <v>219.8929931918851</v>
@@ -6776,40 +6776,40 @@
         <v>115.6072618908574</v>
       </c>
       <c r="I33" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="J33" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="K33" t="n">
-        <v>312.9733300694443</v>
+        <v>217.8354500901342</v>
       </c>
       <c r="L33" t="n">
-        <v>626.600734189144</v>
+        <v>626.6007341891444</v>
       </c>
       <c r="M33" t="n">
-        <v>1156.410734594535</v>
+        <v>1156.410734594536</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.64196121523</v>
+        <v>1715.641961215231</v>
       </c>
       <c r="O33" t="n">
-        <v>2159.601260191708</v>
+        <v>2159.601260191709</v>
       </c>
       <c r="P33" t="n">
-        <v>2499.49119668483</v>
+        <v>2499.491196684831</v>
       </c>
       <c r="Q33" t="n">
         <v>2675.137685653356</v>
       </c>
       <c r="R33" t="n">
-        <v>2626.367926354194</v>
+        <v>2626.367926354195</v>
       </c>
       <c r="S33" t="n">
-        <v>2469.72507095036</v>
+        <v>2469.725070950361</v>
       </c>
       <c r="T33" t="n">
-        <v>2272.382212441495</v>
+        <v>2272.382212441496</v>
       </c>
       <c r="U33" t="n">
         <v>2045.505447847799</v>
@@ -6824,7 +6824,7 @@
         <v>1352.212814112311</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.484378335961</v>
+        <v>1146.484378335962</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="C34" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="D34" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="E34" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="F34" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="G34" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="H34" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="I34" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="J34" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="K34" t="n">
         <v>111.6851036149689</v>
@@ -6879,31 +6879,31 @@
         <v>739.5872567428489</v>
       </c>
       <c r="Q34" t="n">
-        <v>712.0294448677091</v>
+        <v>739.5872567428489</v>
       </c>
       <c r="R34" t="n">
-        <v>712.0294448677091</v>
+        <v>739.5872567428489</v>
       </c>
       <c r="S34" t="n">
-        <v>712.0294448677091</v>
+        <v>739.5872567428489</v>
       </c>
       <c r="T34" t="n">
-        <v>712.0294448677091</v>
+        <v>511.6532137648515</v>
       </c>
       <c r="U34" t="n">
-        <v>712.0294448677091</v>
+        <v>511.6532137648515</v>
       </c>
       <c r="V34" t="n">
-        <v>456.5381811637301</v>
+        <v>282.6521228082888</v>
       </c>
       <c r="W34" t="n">
-        <v>167.5557802673508</v>
+        <v>282.6521228082888</v>
       </c>
       <c r="X34" t="n">
-        <v>167.5557802673508</v>
+        <v>54.22751681605716</v>
       </c>
       <c r="Y34" t="n">
-        <v>54.22751681605715</v>
+        <v>54.22751681605716</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1470.629795383181</v>
+        <v>897.5194545952045</v>
       </c>
       <c r="C35" t="n">
-        <v>1099.937779545865</v>
+        <v>897.5194545952045</v>
       </c>
       <c r="D35" t="n">
-        <v>739.7309787836448</v>
+        <v>798.2283934179011</v>
       </c>
       <c r="E35" t="n">
-        <v>471.1219238840021</v>
+        <v>798.2283934179011</v>
       </c>
       <c r="F35" t="n">
-        <v>471.1219238840021</v>
+        <v>798.2283934179011</v>
       </c>
       <c r="G35" t="n">
-        <v>53.48796262933261</v>
+        <v>380.5944321632315</v>
       </c>
       <c r="H35" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="I35" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="J35" t="n">
-        <v>133.9921451584367</v>
+        <v>133.9921451584376</v>
       </c>
       <c r="K35" t="n">
-        <v>431.2352397411382</v>
+        <v>431.2352397411391</v>
       </c>
       <c r="L35" t="n">
-        <v>851.9606607265011</v>
+        <v>851.9606607265021</v>
       </c>
       <c r="M35" t="n">
-        <v>1335.31105054065</v>
+        <v>1335.311050540651</v>
       </c>
       <c r="N35" t="n">
-        <v>1810.965379996997</v>
+        <v>1810.965379996998</v>
       </c>
       <c r="O35" t="n">
-        <v>2213.983923971034</v>
+        <v>2213.983923971035</v>
       </c>
       <c r="P35" t="n">
-        <v>2521.012133921317</v>
+        <v>2521.012133921318</v>
       </c>
       <c r="Q35" t="n">
-        <v>2674.398131466631</v>
+        <v>2674.398131466632</v>
       </c>
       <c r="R35" t="n">
-        <v>2619.764302295441</v>
+        <v>2619.764302295442</v>
       </c>
       <c r="S35" t="n">
-        <v>2443.978910120072</v>
+        <v>2443.978910120073</v>
       </c>
       <c r="T35" t="n">
-        <v>2443.978910120072</v>
+        <v>2224.939394585181</v>
       </c>
       <c r="U35" t="n">
-        <v>2190.073867619458</v>
+        <v>1971.034352084567</v>
       </c>
       <c r="V35" t="n">
-        <v>1858.222128707823</v>
+        <v>1639.182613172931</v>
       </c>
       <c r="W35" t="n">
-        <v>1858.222128707823</v>
+        <v>1285.111787919846</v>
       </c>
       <c r="X35" t="n">
-        <v>1858.222128707823</v>
+        <v>1285.111787919846</v>
       </c>
       <c r="Y35" t="n">
-        <v>1858.222128707823</v>
+        <v>1285.111787919846</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>355.7955323279089</v>
       </c>
       <c r="G36" t="n">
-        <v>219.1534390051605</v>
+        <v>219.1534390051606</v>
       </c>
       <c r="H36" t="n">
         <v>114.8677077041329</v>
       </c>
       <c r="I36" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="J36" t="n">
-        <v>53.48796262933261</v>
+        <v>130.8009443675138</v>
       </c>
       <c r="K36" t="n">
-        <v>312.2337758827197</v>
+        <v>389.546757620901</v>
       </c>
       <c r="L36" t="n">
-        <v>720.9990599817299</v>
+        <v>798.3120417199111</v>
       </c>
       <c r="M36" t="n">
-        <v>1250.809060387121</v>
+        <v>1155.671180407811</v>
       </c>
       <c r="N36" t="n">
-        <v>1810.040287007816</v>
+        <v>1714.902407028506</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.999585984294</v>
+        <v>2158.861706004984</v>
       </c>
       <c r="P36" t="n">
-        <v>2593.889522477416</v>
+        <v>2498.751642498106</v>
       </c>
       <c r="Q36" t="n">
         <v>2674.398131466631</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="C37" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="D37" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="E37" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="F37" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="G37" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="H37" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="I37" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="J37" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="K37" t="n">
         <v>110.9455494282443</v>
       </c>
       <c r="L37" t="n">
-        <v>240.2750937125217</v>
+        <v>240.2750937125218</v>
       </c>
       <c r="M37" t="n">
-        <v>387.2278644424963</v>
+        <v>387.2278644424964</v>
       </c>
       <c r="N37" t="n">
         <v>535.8276886349454</v>
@@ -7116,31 +7116,31 @@
         <v>738.8477025561243</v>
       </c>
       <c r="Q37" t="n">
-        <v>711.2898906809845</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="R37" t="n">
-        <v>711.2898906809845</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="S37" t="n">
-        <v>711.2898906809845</v>
+        <v>525.2764393902501</v>
       </c>
       <c r="T37" t="n">
-        <v>483.3558477029871</v>
+        <v>525.2764393902501</v>
       </c>
       <c r="U37" t="n">
-        <v>194.4486899485481</v>
+        <v>236.3692816358111</v>
       </c>
       <c r="V37" t="n">
-        <v>194.4486899485481</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="W37" t="n">
-        <v>194.4486899485481</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="X37" t="n">
-        <v>194.4486899485481</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.48796262933261</v>
+        <v>53.48796262933264</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1195.794722138506</v>
+        <v>1613.428683393176</v>
       </c>
       <c r="C38" t="n">
-        <v>825.1027063011904</v>
+        <v>1242.73666755586</v>
       </c>
       <c r="D38" t="n">
-        <v>464.8959055389699</v>
+        <v>882.5298667936394</v>
       </c>
       <c r="E38" t="n">
-        <v>464.8959055389699</v>
+        <v>882.5298667936394</v>
       </c>
       <c r="F38" t="n">
-        <v>53.48796262933263</v>
+        <v>471.1219238840021</v>
       </c>
       <c r="G38" t="n">
-        <v>53.48796262933263</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="H38" t="n">
-        <v>53.48796262933263</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="I38" t="n">
-        <v>53.48796262933263</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="J38" t="n">
         <v>170.2303003079392</v>
@@ -7192,34 +7192,34 @@
         <v>2250.222079120536</v>
       </c>
       <c r="P38" t="n">
-        <v>2521.012133921317</v>
+        <v>2521.012133921318</v>
       </c>
       <c r="Q38" t="n">
-        <v>2674.398131466631</v>
+        <v>2674.398131466632</v>
       </c>
       <c r="R38" t="n">
-        <v>2619.764302295441</v>
+        <v>2674.398131466632</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.230004693911</v>
+        <v>2674.398131466632</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.230004693911</v>
+        <v>2674.398131466632</v>
       </c>
       <c r="U38" t="n">
-        <v>2256.324962193297</v>
+        <v>2674.398131466632</v>
       </c>
       <c r="V38" t="n">
-        <v>1924.473223281662</v>
+        <v>2674.398131466632</v>
       </c>
       <c r="W38" t="n">
-        <v>1570.402398028576</v>
+        <v>2674.398131466632</v>
       </c>
       <c r="X38" t="n">
-        <v>1195.794722138506</v>
+        <v>2299.790455576562</v>
       </c>
       <c r="Y38" t="n">
-        <v>1195.794722138506</v>
+        <v>1909.197453807637</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>114.8677077041329</v>
       </c>
       <c r="I39" t="n">
-        <v>53.48796262933263</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="J39" t="n">
         <v>130.8009443675138</v>
       </c>
       <c r="K39" t="n">
-        <v>389.5467576209009</v>
+        <v>389.546757620901</v>
       </c>
       <c r="L39" t="n">
         <v>798.3120417199111</v>
@@ -7265,7 +7265,7 @@
         <v>1328.122042125302</v>
       </c>
       <c r="N39" t="n">
-        <v>1887.353268745997</v>
+        <v>1714.902407028506</v>
       </c>
       <c r="O39" t="n">
         <v>2158.861706004984</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.48796262933263</v>
+        <v>222.4403649899363</v>
       </c>
       <c r="C40" t="n">
-        <v>53.48796262933263</v>
+        <v>222.4403649899363</v>
       </c>
       <c r="D40" t="n">
-        <v>53.48796262933263</v>
+        <v>222.4403649899363</v>
       </c>
       <c r="E40" t="n">
-        <v>53.48796262933263</v>
+        <v>222.4403649899363</v>
       </c>
       <c r="F40" t="n">
-        <v>53.48796262933263</v>
+        <v>222.4403649899363</v>
       </c>
       <c r="G40" t="n">
-        <v>53.48796262933263</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="H40" t="n">
-        <v>53.48796262933263</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="I40" t="n">
-        <v>53.48796262933263</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="J40" t="n">
-        <v>53.48796262933263</v>
+        <v>53.48796262933264</v>
       </c>
       <c r="K40" t="n">
         <v>110.9455494282443</v>
@@ -7353,31 +7353,31 @@
         <v>738.8477025561243</v>
       </c>
       <c r="Q40" t="n">
-        <v>711.2898906809845</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="R40" t="n">
-        <v>564.6111427457076</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="S40" t="n">
-        <v>351.0398795798334</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="T40" t="n">
-        <v>123.105836601836</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="U40" t="n">
-        <v>53.48796262933263</v>
+        <v>511.4227658863156</v>
       </c>
       <c r="V40" t="n">
-        <v>53.48796262933263</v>
+        <v>511.4227658863156</v>
       </c>
       <c r="W40" t="n">
-        <v>53.48796262933263</v>
+        <v>222.4403649899363</v>
       </c>
       <c r="X40" t="n">
-        <v>53.48796262933263</v>
+        <v>222.4403649899363</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.48796262933263</v>
+        <v>222.4403649899363</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1724.534837883796</v>
+        <v>1583.442018759925</v>
       </c>
       <c r="C41" t="n">
         <v>1569.843137089759</v>
@@ -7417,16 +7417,16 @@
         <v>467.4733948906406</v>
       </c>
       <c r="L41" t="n">
-        <v>888.1988158760037</v>
+        <v>851.9606607265011</v>
       </c>
       <c r="M41" t="n">
-        <v>1371.549205690153</v>
+        <v>1335.31105054065</v>
       </c>
       <c r="N41" t="n">
-        <v>1847.2035351465</v>
+        <v>1810.965379996997</v>
       </c>
       <c r="O41" t="n">
-        <v>2250.222079120536</v>
+        <v>2213.983923971034</v>
       </c>
       <c r="P41" t="n">
         <v>2521.012133921317</v>
@@ -7441,22 +7441,22 @@
         <v>2443.978910120073</v>
       </c>
       <c r="T41" t="n">
-        <v>2443.978910120073</v>
+        <v>2224.939394585181</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.978910120073</v>
+        <v>1971.034352084567</v>
       </c>
       <c r="V41" t="n">
-        <v>2112.127171208437</v>
+        <v>1971.034352084567</v>
       </c>
       <c r="W41" t="n">
-        <v>2112.127171208437</v>
+        <v>1971.034352084567</v>
       </c>
       <c r="X41" t="n">
-        <v>2112.127171208437</v>
+        <v>1971.034352084567</v>
       </c>
       <c r="Y41" t="n">
-        <v>2112.127171208437</v>
+        <v>1971.034352084567</v>
       </c>
     </row>
     <row r="42">
@@ -7469,19 +7469,19 @@
         <v>978.7022730276763</v>
       </c>
       <c r="C42" t="n">
-        <v>805.9491579494933</v>
+        <v>805.9491579494934</v>
       </c>
       <c r="D42" t="n">
-        <v>658.3608513084371</v>
+        <v>658.3608513084373</v>
       </c>
       <c r="E42" t="n">
-        <v>500.7513223112917</v>
+        <v>500.751322311292</v>
       </c>
       <c r="F42" t="n">
-        <v>355.7955323279086</v>
+        <v>355.7955323279089</v>
       </c>
       <c r="G42" t="n">
-        <v>219.1534390051602</v>
+        <v>219.1534390051606</v>
       </c>
       <c r="H42" t="n">
         <v>114.8677077041329</v>
@@ -7493,13 +7493,13 @@
         <v>130.8009443675138</v>
       </c>
       <c r="K42" t="n">
-        <v>217.0958959034093</v>
+        <v>389.5467576209009</v>
       </c>
       <c r="L42" t="n">
-        <v>625.8611800024195</v>
+        <v>798.3120417199111</v>
       </c>
       <c r="M42" t="n">
-        <v>1155.671180407811</v>
+        <v>1328.122042125302</v>
       </c>
       <c r="N42" t="n">
         <v>1714.902407028506</v>
@@ -7523,13 +7523,13 @@
         <v>2271.642658254771</v>
       </c>
       <c r="U42" t="n">
-        <v>2044.765893661075</v>
+        <v>2044.765893661074</v>
       </c>
       <c r="V42" t="n">
         <v>1810.514650186675</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.000158520009</v>
+        <v>1558.000158520008</v>
       </c>
       <c r="X42" t="n">
         <v>1351.473259925586</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>269.7845845371129</v>
+        <v>201.9471789658975</v>
       </c>
       <c r="C43" t="n">
-        <v>269.7845845371129</v>
+        <v>201.9471789658975</v>
       </c>
       <c r="D43" t="n">
-        <v>269.7845845371129</v>
+        <v>201.9471789658975</v>
       </c>
       <c r="E43" t="n">
-        <v>269.7845845371129</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="F43" t="n">
-        <v>269.7845845371129</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="G43" t="n">
-        <v>269.7845845371129</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="H43" t="n">
-        <v>189.7623566211136</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="I43" t="n">
         <v>53.48796262933263</v>
@@ -7590,31 +7590,31 @@
         <v>738.8477025561243</v>
       </c>
       <c r="Q43" t="n">
-        <v>711.2898906809845</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="R43" t="n">
-        <v>711.2898906809845</v>
+        <v>704.4255998862106</v>
       </c>
       <c r="S43" t="n">
-        <v>497.7186275151103</v>
+        <v>490.8543367203364</v>
       </c>
       <c r="T43" t="n">
-        <v>269.7845845371129</v>
+        <v>490.8543367203364</v>
       </c>
       <c r="U43" t="n">
-        <v>269.7845845371129</v>
+        <v>201.9471789658975</v>
       </c>
       <c r="V43" t="n">
-        <v>269.7845845371129</v>
+        <v>201.9471789658975</v>
       </c>
       <c r="W43" t="n">
-        <v>269.7845845371129</v>
+        <v>201.9471789658975</v>
       </c>
       <c r="X43" t="n">
-        <v>269.7845845371129</v>
+        <v>201.9471789658975</v>
       </c>
       <c r="Y43" t="n">
-        <v>269.7845845371129</v>
+        <v>201.9471789658975</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>683.2100313827368</v>
+        <v>1324.707407207992</v>
       </c>
       <c r="C44" t="n">
-        <v>312.518015545421</v>
+        <v>954.0153913706764</v>
       </c>
       <c r="D44" t="n">
-        <v>312.518015545421</v>
+        <v>920.4721682745028</v>
       </c>
       <c r="E44" t="n">
-        <v>312.518015545421</v>
+        <v>533.4842533701719</v>
       </c>
       <c r="F44" t="n">
-        <v>53.48796262933263</v>
+        <v>533.4842533701719</v>
       </c>
       <c r="G44" t="n">
-        <v>53.48796262933263</v>
+        <v>533.4842533701719</v>
       </c>
       <c r="H44" t="n">
-        <v>53.48796262933263</v>
+        <v>206.3777838362731</v>
       </c>
       <c r="I44" t="n">
         <v>53.48796262933263</v>
       </c>
       <c r="J44" t="n">
-        <v>133.9921451584367</v>
+        <v>170.2303003079392</v>
       </c>
       <c r="K44" t="n">
-        <v>431.2352397411382</v>
+        <v>467.4733948906406</v>
       </c>
       <c r="L44" t="n">
-        <v>851.9606607265011</v>
+        <v>888.1988158760037</v>
       </c>
       <c r="M44" t="n">
-        <v>1335.31105054065</v>
+        <v>1371.549205690153</v>
       </c>
       <c r="N44" t="n">
-        <v>1810.965379996997</v>
+        <v>1847.2035351465</v>
       </c>
       <c r="O44" t="n">
-        <v>2213.983923971034</v>
+        <v>2250.222079120536</v>
       </c>
       <c r="P44" t="n">
         <v>2521.012133921317</v>
@@ -7681,19 +7681,19 @@
         <v>2443.978910120073</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.073867619459</v>
+        <v>2443.978910120073</v>
       </c>
       <c r="V44" t="n">
-        <v>2190.073867619459</v>
+        <v>2443.978910120073</v>
       </c>
       <c r="W44" t="n">
-        <v>1836.003042366373</v>
+        <v>2089.908084866987</v>
       </c>
       <c r="X44" t="n">
-        <v>1461.395366476303</v>
+        <v>1715.300408976917</v>
       </c>
       <c r="Y44" t="n">
-        <v>1070.802364707378</v>
+        <v>1324.707407207992</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.48796262933263</v>
       </c>
       <c r="J45" t="n">
-        <v>130.8009443675138</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="K45" t="n">
-        <v>389.5467576209009</v>
+        <v>312.2337758827197</v>
       </c>
       <c r="L45" t="n">
-        <v>798.3120417199111</v>
+        <v>720.9990599817299</v>
       </c>
       <c r="M45" t="n">
-        <v>1328.122042125302</v>
+        <v>1155.671180407811</v>
       </c>
       <c r="N45" t="n">
-        <v>1887.353268745997</v>
+        <v>1714.902407028506</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.312567722475</v>
+        <v>2158.861706004984</v>
       </c>
       <c r="P45" t="n">
-        <v>2671.202504215597</v>
+        <v>2498.751642498106</v>
       </c>
       <c r="Q45" t="n">
         <v>2674.398131466631</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2129.999710008213</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="C46" t="n">
-        <v>2129.999710008213</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="D46" t="n">
-        <v>2129.999710008213</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="E46" t="n">
-        <v>2129.999710008213</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="F46" t="n">
-        <v>2129.999710008213</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="G46" t="n">
-        <v>2129.999710008213</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="H46" t="n">
-        <v>2125.312785531621</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="I46" t="n">
-        <v>1989.03839153984</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="J46" t="n">
-        <v>1989.03839153984</v>
+        <v>53.48796262933263</v>
       </c>
       <c r="K46" t="n">
-        <v>2046.495978338751</v>
+        <v>110.9455494282443</v>
       </c>
       <c r="L46" t="n">
-        <v>2175.825522623029</v>
+        <v>240.2750937125218</v>
       </c>
       <c r="M46" t="n">
-        <v>2322.778293353003</v>
+        <v>387.2278644424964</v>
       </c>
       <c r="N46" t="n">
-        <v>2471.378117545452</v>
+        <v>535.8276886349454</v>
       </c>
       <c r="O46" t="n">
-        <v>2593.297510210259</v>
+        <v>657.7470812997516</v>
       </c>
       <c r="P46" t="n">
-        <v>2674.398131466631</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="Q46" t="n">
-        <v>2674.398131466631</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="R46" t="n">
-        <v>2674.398131466631</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="S46" t="n">
-        <v>2674.398131466631</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="T46" t="n">
-        <v>2674.398131466631</v>
+        <v>738.8477025561243</v>
       </c>
       <c r="U46" t="n">
-        <v>2385.490973712192</v>
+        <v>563.4286199578011</v>
       </c>
       <c r="V46" t="n">
-        <v>2129.999710008213</v>
+        <v>563.4286199578011</v>
       </c>
       <c r="W46" t="n">
-        <v>2129.999710008213</v>
+        <v>274.4462190614217</v>
       </c>
       <c r="X46" t="n">
-        <v>2129.999710008213</v>
+        <v>274.4462190614217</v>
       </c>
       <c r="Y46" t="n">
-        <v>2129.999710008213</v>
+        <v>53.48796262933263</v>
       </c>
     </row>
   </sheetData>
@@ -7987,10 +7987,10 @@
         <v>229.8722545957376</v>
       </c>
       <c r="M2" t="n">
-        <v>258.7980306913736</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6777370066762</v>
+        <v>257.8881903014588</v>
       </c>
       <c r="O2" t="n">
         <v>264.2271203403134</v>
@@ -8063,22 +8063,22 @@
         <v>174.2767672041689</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N3" t="n">
         <v>158.8601744807202</v>
       </c>
       <c r="O3" t="n">
-        <v>178.9127025375022</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.3635939380398</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8218,16 +8218,16 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L5" t="n">
-        <v>264.0827078905203</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
         <v>224.5875773965909</v>
       </c>
       <c r="N5" t="n">
-        <v>263.559101210845</v>
+        <v>257.8881903014588</v>
       </c>
       <c r="O5" t="n">
         <v>264.2271203403134</v>
@@ -8294,25 +8294,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>174.2767672041689</v>
       </c>
       <c r="L6" t="n">
-        <v>174.9718844895462</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
         <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>158.8601744807202</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O6" t="n">
-        <v>178.9127025375022</v>
+        <v>177.3013342868286</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q6" t="n">
         <v>136.482229733871</v>
@@ -8458,7 +8458,7 @@
         <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>269.7536187999064</v>
+        <v>264.0827078905203</v>
       </c>
       <c r="M8" t="n">
         <v>264.4689416007598</v>
@@ -8467,13 +8467,13 @@
         <v>263.559101210845</v>
       </c>
       <c r="O8" t="n">
-        <v>224.3457561361446</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P8" t="n">
-        <v>263.7221668148831</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8531,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>174.2767672041689</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O9" t="n">
         <v>178.9127025375022</v>
       </c>
       <c r="P9" t="n">
-        <v>161.4270524284422</v>
+        <v>168.8950431824673</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.3635939380398</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>139.2562826582466</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8698,7 +8698,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
-        <v>430.8898777118372</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
         <v>454.8408013884635</v>
@@ -8777,7 +8777,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>310.1404766863725</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
         <v>498.5160693172957</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>44.28758963165528</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8932,7 +8932,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
-        <v>397.7634660117589</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
         <v>467.4940748325458</v>
@@ -8947,7 +8947,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>184.2033931655913</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>53.04075580636741</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>178.9449778271116</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9017,7 +9017,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>324.3232797036675</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9166,10 +9166,10 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1112290740114</v>
+        <v>300.5070319533017</v>
       </c>
       <c r="L17" t="n">
-        <v>397.7634660117589</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
         <v>467.4940748325458</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>53.04075580636741</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9254,7 +9254,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>324.3232797036675</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>122.3815105793133</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>139.2562826582472</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9412,7 +9412,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N20" t="n">
-        <v>418.2366042677538</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O20" t="n">
         <v>396.0321885132552</v>
@@ -9494,10 +9494,10 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O21" t="n">
-        <v>235.4240224341707</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>157.0084897719069</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9716,10 +9716,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>53.04075580636741</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>178.9449778271116</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9734,7 +9734,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>157.0084897719069</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
         <v>218.4803792452831</v>
@@ -9953,19 +9953,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>53.04075580636741</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>289.5750904496277</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>324.323279703668</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -10190,13 +10190,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>53.04075580636741</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>289.5750904496273</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>44.28758963165575</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10430,10 +10430,10 @@
         <v>53.04075580636741</v>
       </c>
       <c r="K33" t="n">
-        <v>275.0438464930818</v>
+        <v>178.944977827112</v>
       </c>
       <c r="L33" t="n">
-        <v>289.5750904496273</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
         <v>484.3332662999999</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2562826582472</v>
+        <v>139.2562826582481</v>
       </c>
       <c r="K35" t="n">
         <v>337.1112290740114</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>53.04075580636741</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10673,7 +10673,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>484.3332662999999</v>
+        <v>310.140476686372</v>
       </c>
       <c r="N36" t="n">
         <v>498.5160693172957</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>122.3815105793133</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10840,7 +10840,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
-        <v>298.0664593776323</v>
+        <v>298.0664593776332</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
@@ -10913,10 +10913,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>324.3232797036675</v>
       </c>
       <c r="O39" t="n">
-        <v>235.4240224341707</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
@@ -11065,7 +11065,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
-        <v>434.3676631324684</v>
+        <v>397.7634660117589</v>
       </c>
       <c r="M41" t="n">
         <v>467.4940748325458</v>
@@ -11077,7 +11077,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
-        <v>298.0664593776323</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11141,7 +11141,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>100.8510568794539</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>324.3232797036675</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2562826582472</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
@@ -11314,7 +11314,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
-        <v>334.6706564983419</v>
+        <v>298.0664593776323</v>
       </c>
       <c r="Q44" t="n">
         <v>220.8075902863009</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>53.04075580636741</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11384,7 +11384,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>484.3332662999999</v>
+        <v>388.2343976340298</v>
       </c>
       <c r="N45" t="n">
         <v>498.5160693172957</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.28758963165529</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>342.973735418474</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23266,10 +23266,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>377.0708666397159</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.360922994871</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.027538253615</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.28223375638839</v>
+        <v>27.28223375638838</v>
       </c>
       <c r="R13" t="n">
         <v>145.2119604559241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.4355505342155</v>
       </c>
       <c r="T13" t="n">
-        <v>44.60219673180379</v>
+        <v>225.6547025482174</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>146.5408716037254</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>99.64244386045601</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.4576216421228</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.8354048385599</v>
       </c>
       <c r="I14" t="n">
         <v>151.360922994871</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.08749087947825</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.027538253615</v>
       </c>
       <c r="T14" t="n">
-        <v>216.849120379543</v>
+        <v>60.82756038204192</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23670,7 +23670,7 @@
         <v>167.2628783369976</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.0620450992619</v>
       </c>
       <c r="I16" t="n">
         <v>134.9116500518632</v>
@@ -23700,25 +23700,25 @@
         <v>27.28223375638839</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>145.2119604559241</v>
       </c>
       <c r="S16" t="n">
         <v>211.4355505342155</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6547025482174</v>
+        <v>86.10299726452743</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0180861768945</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
-        <v>135.000799847387</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
         <v>218.7486738677682</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.4576216421228</v>
       </c>
       <c r="H17" t="n">
         <v>323.8354048385599</v>
       </c>
       <c r="I17" t="n">
-        <v>23.15162170676615</v>
+        <v>151.360922994871</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>54.08749087947825</v>
       </c>
       <c r="S17" t="n">
-        <v>174.027538253615</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3659920756078</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>231.2860626397086</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -23898,7 +23898,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
@@ -23907,7 +23907,7 @@
         <v>167.2628783369976</v>
       </c>
       <c r="H19" t="n">
-        <v>156.0620450992619</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>134.9116500518632</v>
@@ -23946,13 +23946,13 @@
         <v>225.6547025482174</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>55.76057337775595</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>38.81648099271047</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>255.8321342531875</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.360922994871</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.027538253615</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.849120379543</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3659920756078</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>124.4799268686372</v>
       </c>
     </row>
     <row r="21">
@@ -24174,22 +24174,22 @@
         <v>27.28223375638839</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>145.2119604559241</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.4355505342155</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0180861768945</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>156.7324220777724</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>119.2592230850038</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>206.93946725884</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.8354048385599</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.360922994871</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.849120379543</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3659920756078</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>27.23018875933263</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24372,7 +24372,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>27.28223375638839</v>
       </c>
       <c r="R25" t="n">
         <v>145.2119604559241</v>
       </c>
       <c r="S25" t="n">
-        <v>211.4355505342155</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.6547025482174</v>
@@ -24426,13 +24426,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>147.0271142254839</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>184.6707922245535</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4576216421228</v>
+        <v>357.2446571970744</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.360922994871</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.08749087947825</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.027538253615</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.849120379543</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>253.8452407511047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,16 +24609,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>83.16438694766339</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2628783369976</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.0620450992619</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.9116500518632</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>27.28223375638839</v>
       </c>
       <c r="R28" t="n">
-        <v>32.94248892862248</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>211.4355505342155</v>
@@ -24657,10 +24657,10 @@
         <v>225.6547025482174</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0180861768945</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4576216421228</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8347860801083</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.360922994871</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>85.38403898804847</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3659920756078</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2628783369976</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.0620450992619</v>
@@ -24900,10 +24900,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>38.81648099271038</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>146.1271423746017</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
         <v>413.4576216421228</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>126.0439700369799</v>
+        <v>151.360922994871</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.027538253615</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3659920756078</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>375.7630052652764</v>
       </c>
     </row>
     <row r="33">
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>27.28223375638839</v>
       </c>
       <c r="R34" t="n">
         <v>145.2119604559241</v>
@@ -25128,22 +25128,22 @@
         <v>211.4355505342155</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6547025482174</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.0180861768945</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>26.22527101994206</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.5536930509875</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>258.306582189068</v>
       </c>
       <c r="E35" t="n">
-        <v>117.1950714046412</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.8354048385599</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.360922994871</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.849120379543</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>27.28223375638839</v>
       </c>
       <c r="R37" t="n">
         <v>145.2119604559241</v>
       </c>
       <c r="S37" t="n">
-        <v>211.4355505342155</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6547025482174</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>71.8838452505255</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>79.19755382174489</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>90.90532728107917</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4576216421228</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.8354048385599</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.08749087947825</v>
       </c>
       <c r="S38" t="n">
-        <v>65.58858362810039</v>
+        <v>174.027538253615</v>
       </c>
       <c r="T38" t="n">
         <v>216.849120379543</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3659920756078</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25563,7 +25563,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2628783369976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.0620450992619</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>27.28223375638839</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>145.2119604559241</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>211.4355505342155</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6547025482174</v>
       </c>
       <c r="U40" t="n">
-        <v>217.0963909441162</v>
+        <v>60.86739887378391</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>213.8403118928463</v>
+        <v>353.522202825478</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.849120379543</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3659920756078</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -25794,7 +25794,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>146.1590214098045</v>
@@ -25803,10 +25803,10 @@
         <v>167.2628783369976</v>
       </c>
       <c r="H43" t="n">
-        <v>76.84003946242261</v>
+        <v>156.0620450992619</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9116500518632</v>
       </c>
       <c r="J43" t="n">
         <v>44.53040599486842</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>27.28223375638839</v>
       </c>
       <c r="R43" t="n">
-        <v>145.2119604559241</v>
+        <v>111.1340788127095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.6547025482174</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0180861768945</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>323.3969418893865</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>150.8541110936134</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
         <v>413.4576216421228</v>
       </c>
       <c r="H44" t="n">
-        <v>323.8354048385599</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.360922994871</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>216.849120379543</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3659920756078</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -26040,10 +26040,10 @@
         <v>167.2628783369976</v>
       </c>
       <c r="H46" t="n">
-        <v>151.4219898674352</v>
+        <v>156.0620450992619</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9116500518632</v>
       </c>
       <c r="J46" t="n">
         <v>44.53040599486842</v>
@@ -26079,19 +26079,19 @@
         <v>225.6547025482174</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>112.3531944045545</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631452.0727675125</v>
+        <v>631452.0727675124</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631452.0727675124</v>
+        <v>631452.0727675125</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634893.4222896957</v>
+        <v>634893.4222896958</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>631452.0727675124</v>
+        <v>631452.0727675125</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631452.0727675124</v>
+        <v>631452.0727675125</v>
       </c>
     </row>
     <row r="16">
@@ -26322,37 +26322,37 @@
         <v>651135.5268919494</v>
       </c>
       <c r="E2" t="n">
+        <v>455232.0170208133</v>
+      </c>
+      <c r="F2" t="n">
         <v>455232.0170208134</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>455232.0170208133</v>
+      </c>
+      <c r="H2" t="n">
         <v>455232.0170208132</v>
-      </c>
-      <c r="G2" t="n">
-        <v>455232.0170208132</v>
-      </c>
-      <c r="H2" t="n">
-        <v>455232.0170208133</v>
       </c>
       <c r="I2" t="n">
         <v>457516.5862835344</v>
       </c>
       <c r="J2" t="n">
-        <v>457516.5862835344</v>
+        <v>457516.5862835343</v>
       </c>
       <c r="K2" t="n">
-        <v>457516.5862835344</v>
+        <v>457516.5862835343</v>
       </c>
       <c r="L2" t="n">
         <v>457516.5862835345</v>
       </c>
       <c r="M2" t="n">
+        <v>455232.0170208134</v>
+      </c>
+      <c r="N2" t="n">
         <v>455232.0170208132</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>455232.0170208133</v>
-      </c>
-      <c r="O2" t="n">
-        <v>455232.0170208134</v>
       </c>
       <c r="P2" t="n">
         <v>455232.0170208134</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13365.16241619369</v>
+        <v>13365.16241619367</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.227305085282789e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>389393.1044914554</v>
       </c>
       <c r="C4" t="n">
-        <v>389393.1044914552</v>
+        <v>389393.1044914554</v>
       </c>
       <c r="D4" t="n">
-        <v>389393.1044914554</v>
+        <v>389393.1044914553</v>
       </c>
       <c r="E4" t="n">
-        <v>91373.44600129101</v>
+        <v>91373.44600129098</v>
       </c>
       <c r="F4" t="n">
-        <v>91373.44600129098</v>
+        <v>91373.446001291</v>
       </c>
       <c r="G4" t="n">
         <v>91373.44600129098</v>
       </c>
       <c r="H4" t="n">
-        <v>91373.44600129098</v>
+        <v>91373.446001291</v>
       </c>
       <c r="I4" t="n">
         <v>92106.24006512933</v>
@@ -26444,13 +26444,13 @@
         <v>92106.24006512933</v>
       </c>
       <c r="K4" t="n">
-        <v>92106.24006512931</v>
+        <v>92106.24006512933</v>
       </c>
       <c r="L4" t="n">
-        <v>92106.24006512931</v>
+        <v>92106.24006512933</v>
       </c>
       <c r="M4" t="n">
-        <v>91373.446001291</v>
+        <v>91373.44600129101</v>
       </c>
       <c r="N4" t="n">
         <v>91373.446001291</v>
@@ -26487,7 +26487,7 @@
         <v>48227.2129320956</v>
       </c>
       <c r="H5" t="n">
-        <v>48227.21293209559</v>
+        <v>48227.2129320956</v>
       </c>
       <c r="I5" t="n">
         <v>48789.27411400624</v>
@@ -26502,7 +26502,7 @@
         <v>48789.27411400624</v>
       </c>
       <c r="M5" t="n">
-        <v>48227.21293209559</v>
+        <v>48227.2129320956</v>
       </c>
       <c r="N5" t="n">
         <v>48227.2129320956</v>
@@ -26524,46 +26524,46 @@
         <v>212324.8730406871</v>
       </c>
       <c r="C6" t="n">
-        <v>225690.0354568809</v>
+        <v>225690.0354568808</v>
       </c>
       <c r="D6" t="n">
-        <v>225690.0354568805</v>
+        <v>225690.0354568806</v>
       </c>
       <c r="E6" t="n">
-        <v>-151304.3408103982</v>
+        <v>-157426.3254938712</v>
       </c>
       <c r="F6" t="n">
-        <v>315631.3580874266</v>
+        <v>309509.3734039537</v>
       </c>
       <c r="G6" t="n">
-        <v>315631.3580874266</v>
+        <v>309509.3734039536</v>
       </c>
       <c r="H6" t="n">
-        <v>315631.3580874267</v>
+        <v>309509.3734039536</v>
       </c>
       <c r="I6" t="n">
-        <v>314162.7847432991</v>
+        <v>308112.1928492861</v>
       </c>
       <c r="J6" t="n">
-        <v>306186.3524485633</v>
+        <v>300135.7605545502</v>
       </c>
       <c r="K6" t="n">
-        <v>316621.0721043989</v>
+        <v>310570.4802103858</v>
       </c>
       <c r="L6" t="n">
-        <v>316621.0721043989</v>
+        <v>310570.480210386</v>
       </c>
       <c r="M6" t="n">
-        <v>161256.0238534161</v>
+        <v>155134.0391699432</v>
       </c>
       <c r="N6" t="n">
-        <v>315631.3580874267</v>
+        <v>309509.3734039536</v>
       </c>
       <c r="O6" t="n">
-        <v>315631.3580874267</v>
+        <v>309509.3734039537</v>
       </c>
       <c r="P6" t="n">
-        <v>315631.3580874267</v>
+        <v>309509.3734039539</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>39.88136420416884</v>
       </c>
       <c r="E4" t="n">
-        <v>668.5995328666579</v>
+        <v>668.5995328666578</v>
       </c>
       <c r="F4" t="n">
         <v>668.5995328666578</v>
@@ -26807,7 +26807,7 @@
         <v>668.5995328666578</v>
       </c>
       <c r="H4" t="n">
-        <v>668.5995328666577</v>
+        <v>668.5995328666578</v>
       </c>
       <c r="I4" t="n">
         <v>677.8439602007144</v>
@@ -26816,16 +26816,16 @@
         <v>677.8439602007145</v>
       </c>
       <c r="K4" t="n">
-        <v>677.8439602007144</v>
+        <v>677.8439602007145</v>
       </c>
       <c r="L4" t="n">
-        <v>677.8439602007144</v>
+        <v>677.8439602007145</v>
       </c>
       <c r="M4" t="n">
-        <v>668.5995328666577</v>
+        <v>668.5995328666579</v>
       </c>
       <c r="N4" t="n">
-        <v>668.5995328666578</v>
+        <v>668.5995328666579</v>
       </c>
       <c r="O4" t="n">
         <v>668.5995328666578</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>628.7181686624891</v>
+        <v>628.718168662489</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.542333613763172e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>628.7181686624891</v>
+        <v>628.718168662489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.542333613763172e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>367.412499276372</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>380.3865369473614</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -27402,7 +27402,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>183.0837529922515</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>211.5963993723756</v>
       </c>
       <c r="V2" t="n">
-        <v>315.5543448158592</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>310.6487527963857</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.805707547067</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.2446200193129</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>131.1442197232321</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
         <v>106.2310593704767</v>
@@ -27508,13 +27508,13 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>133.8341083146125</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>184.7758128630324</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -27542,10 +27542,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D4" t="n">
-        <v>109.1242023103505</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E4" t="n">
-        <v>111.8471185821673</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F4" t="n">
         <v>106.2776572056356</v>
@@ -27554,13 +27554,13 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>121.752707804748</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
         <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>53.71133933674705</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -27584,7 +27584,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>133.5097834656135</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
@@ -27602,7 +27602,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X4" t="n">
-        <v>226.1403599323093</v>
+        <v>186.2589957281404</v>
       </c>
       <c r="Y4" t="n">
         <v>218.7486738677682</v>
@@ -27627,7 +27627,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>372.8256350240713</v>
       </c>
       <c r="G5" t="n">
         <v>374.9734011996621</v>
@@ -27636,10 +27636,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>165.3429436639552</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>165.9835875193704</v>
       </c>
       <c r="T5" t="n">
-        <v>183.0837529922515</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>223.6441214660533</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>310.6487527963857</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
         <v>370.8615991311694</v>
@@ -27703,19 +27703,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>116.152069503005</v>
       </c>
       <c r="F6" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>96.14184600087347</v>
       </c>
       <c r="H6" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>51.37603787443977</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>54.81361555692238</v>
       </c>
       <c r="S6" t="n">
-        <v>133.8341083146125</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>184.7758128630324</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>192.0273668354863</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>210.1079825458312</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
@@ -27791,16 +27791,16 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6340720089168</v>
+        <v>141.2809761357183</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>113.8771825932348</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>48.9574807236101</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>39.87933567167934</v>
       </c>
       <c r="R7" t="n">
-        <v>133.5097834656135</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>182.4760427572537</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
         <v>228.3324659915077</v>
@@ -27836,7 +27836,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>250.9650712963837</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343.8350457872262</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>354.0062189722825</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -27864,19 +27864,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>367.412499276372</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H8" t="n">
-        <v>298.2625391839845</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>101.9694584967082</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>183.0837529922515</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>217.0095351200749</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -27982,25 +27982,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>129.0802497014755</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>163.2550263172368</v>
       </c>
       <c r="U9" t="n">
-        <v>184.7758128630324</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>192.0273668354863</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>210.1079825458312</v>
       </c>
       <c r="X9" t="n">
         <v>164.5802654043094</v>
       </c>
       <c r="Y9" t="n">
-        <v>168.5436458275541</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -28013,13 +28013,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C10" t="n">
-        <v>127.4551887270335</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>107.0932599690303</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>39.87933567167934</v>
       </c>
       <c r="R10" t="n">
-        <v>133.5097834656135</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>207.9793701183091</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -28073,13 +28073,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>246.2112126832467</v>
       </c>
       <c r="X10" t="n">
-        <v>226.1403599323093</v>
+        <v>186.2589957281404</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.7486738677682</v>
+        <v>198.3955779945697</v>
       </c>
     </row>
     <row r="11">
@@ -31764,7 +31764,7 @@
         <v>118.5808303452761</v>
       </c>
       <c r="K11" t="n">
-        <v>177.7219257783815</v>
+        <v>177.7219257783816</v>
       </c>
       <c r="L11" t="n">
         <v>220.479764175757</v>
@@ -31773,25 +31773,25 @@
         <v>245.3262195480341</v>
       </c>
       <c r="N11" t="n">
-        <v>249.2958542609873</v>
+        <v>249.2958542609874</v>
       </c>
       <c r="O11" t="n">
-        <v>235.403005980502</v>
+        <v>235.4030059805021</v>
       </c>
       <c r="P11" t="n">
-        <v>200.9110193633323</v>
+        <v>200.9110193633324</v>
       </c>
       <c r="Q11" t="n">
         <v>150.8758083971597</v>
       </c>
       <c r="R11" t="n">
-        <v>87.76333182139882</v>
+        <v>87.76333182139884</v>
       </c>
       <c r="S11" t="n">
         <v>31.8374134699242</v>
       </c>
       <c r="T11" t="n">
-        <v>6.115996816877372</v>
+        <v>6.115996816877373</v>
       </c>
       <c r="U11" t="n">
         <v>0.1117715009366509</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7475378155214815</v>
+        <v>0.7475378155214817</v>
       </c>
       <c r="H12" t="n">
-        <v>7.219641534115362</v>
+        <v>7.219641534115363</v>
       </c>
       <c r="I12" t="n">
-        <v>25.73759584141943</v>
+        <v>25.73759584141944</v>
       </c>
       <c r="J12" t="n">
-        <v>70.62593019363261</v>
+        <v>70.62593019363263</v>
       </c>
       <c r="K12" t="n">
         <v>120.7109638335719</v>
@@ -31852,16 +31852,16 @@
         <v>189.4090333450701</v>
       </c>
       <c r="N12" t="n">
-        <v>194.4221268535453</v>
+        <v>194.4221268535454</v>
       </c>
       <c r="O12" t="n">
-        <v>177.8582626254114</v>
+        <v>177.8582626254115</v>
       </c>
       <c r="P12" t="n">
         <v>142.7469360183082</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.42254641639123</v>
+        <v>95.42254641639124</v>
       </c>
       <c r="R12" t="n">
         <v>46.41291805492148</v>
@@ -31870,10 +31870,10 @@
         <v>13.88518705584856</v>
       </c>
       <c r="T12" t="n">
-        <v>3.013101984492286</v>
+        <v>3.013101984492287</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04918011944220275</v>
+        <v>0.04918011944220276</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6267105931104741</v>
+        <v>0.6267105931104742</v>
       </c>
       <c r="H13" t="n">
-        <v>5.572026909654946</v>
+        <v>5.572026909654947</v>
       </c>
       <c r="I13" t="n">
-        <v>18.84689674554044</v>
+        <v>18.84689674554045</v>
       </c>
       <c r="J13" t="n">
-        <v>44.30843893291051</v>
+        <v>44.30843893291052</v>
       </c>
       <c r="K13" t="n">
-        <v>72.81237618138051</v>
+        <v>72.81237618138053</v>
       </c>
       <c r="L13" t="n">
-        <v>93.17477308844268</v>
+        <v>93.17477308844269</v>
       </c>
       <c r="M13" t="n">
-        <v>98.23973415458093</v>
+        <v>98.23973415458094</v>
       </c>
       <c r="N13" t="n">
-        <v>95.90381285298743</v>
+        <v>95.90381285298744</v>
       </c>
       <c r="O13" t="n">
-        <v>88.5826936516514</v>
+        <v>88.58269365165141</v>
       </c>
       <c r="P13" t="n">
-        <v>75.79779755219766</v>
+        <v>75.79779755219768</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.47846611945979</v>
+        <v>52.4784661194598</v>
       </c>
       <c r="R13" t="n">
         <v>28.17918721385822</v>
@@ -31949,10 +31949,10 @@
         <v>10.92185642720708</v>
       </c>
       <c r="T13" t="n">
-        <v>2.677763443290206</v>
+        <v>2.677763443290207</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03418421416966226</v>
+        <v>0.03418421416966227</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34707,10 +34707,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>34.21045329478271</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>39.88136420416884</v>
@@ -34783,22 +34783,22 @@
         <v>39.88136420416884</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N3" t="n">
         <v>30.80200519947019</v>
       </c>
       <c r="O3" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M4" t="n">
-        <v>39.88136420416885</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N4" t="n">
         <v>39.88136420416884</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>34.21045329478271</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39.88136420416884</v>
       </c>
       <c r="O5" t="n">
         <v>39.88136420416884</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>39.88136420416884</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>30.80200519947019</v>
-      </c>
       <c r="O6" t="n">
+        <v>38.26999595349533</v>
+      </c>
+      <c r="P6" t="n">
         <v>39.88136420416884</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35108,7 +35108,7 @@
         <v>39.88136420416884</v>
       </c>
       <c r="O7" t="n">
-        <v>34.56820802997106</v>
+        <v>34.56820802997107</v>
       </c>
       <c r="P7" t="n">
         <v>6.12202189868384</v>
@@ -35178,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.88136420416884</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="M8" t="n">
         <v>39.88136420416884</v>
@@ -35187,13 +35187,13 @@
         <v>39.88136420416884</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P8" t="n">
-        <v>38.26999595349533</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O9" t="n">
         <v>39.88136420416884</v>
       </c>
       <c r="P9" t="n">
-        <v>30.80200519947019</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.9215532107137</v>
+        <v>81.3173560900036</v>
       </c>
       <c r="K11" t="n">
-        <v>300.2455500835368</v>
+        <v>300.2455500835369</v>
       </c>
       <c r="L11" t="n">
         <v>424.9751727124878</v>
       </c>
       <c r="M11" t="n">
-        <v>451.6285198632804</v>
+        <v>488.232716983989</v>
       </c>
       <c r="N11" t="n">
-        <v>480.4589186427746</v>
+        <v>480.4589186427747</v>
       </c>
       <c r="O11" t="n">
-        <v>407.0894383576126</v>
+        <v>407.0894383576127</v>
       </c>
       <c r="P11" t="n">
         <v>310.1295050002865</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>78.09392094765776</v>
+        <v>78.09392094765778</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3594073266536</v>
+        <v>261.3594073266537</v>
       </c>
       <c r="L12" t="n">
         <v>412.8942263626366</v>
       </c>
       <c r="M12" t="n">
-        <v>360.9688269574747</v>
+        <v>535.1616165711022</v>
       </c>
       <c r="N12" t="n">
-        <v>564.8800268895909</v>
+        <v>564.880026889591</v>
       </c>
       <c r="O12" t="n">
-        <v>448.4437363398768</v>
+        <v>448.4437363398769</v>
       </c>
       <c r="P12" t="n">
         <v>343.3231681748708</v>
       </c>
       <c r="Q12" t="n">
-        <v>177.4206959278033</v>
+        <v>3.227906314175539</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>58.03796646354716</v>
+        <v>58.03796646354718</v>
       </c>
       <c r="L13" t="n">
-        <v>130.6359033174519</v>
+        <v>130.635903317452</v>
       </c>
       <c r="M13" t="n">
         <v>148.4371421514895</v>
@@ -35585,7 +35585,7 @@
         <v>123.1509016816225</v>
       </c>
       <c r="P13" t="n">
-        <v>81.9198194508815</v>
+        <v>81.91981945088152</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>300.2455500835368</v>
       </c>
       <c r="L14" t="n">
-        <v>388.3709755917783</v>
+        <v>424.9751727124878</v>
       </c>
       <c r="M14" t="n">
         <v>488.232716983989</v>
@@ -35667,7 +35667,7 @@
         <v>310.1295050002865</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.9353510558723</v>
+        <v>118.3311539351627</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>78.09392094765776</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>261.3594073266536</v>
+        <v>165.2605386606835</v>
       </c>
       <c r="L15" t="n">
         <v>412.8942263626366</v>
@@ -35737,7 +35737,7 @@
         <v>535.1616165711022</v>
       </c>
       <c r="N15" t="n">
-        <v>390.6872372759628</v>
+        <v>564.8800268895909</v>
       </c>
       <c r="O15" t="n">
         <v>448.4437363398768</v>
@@ -35886,10 +35886,10 @@
         <v>117.9215532107137</v>
       </c>
       <c r="K17" t="n">
-        <v>300.2455500835368</v>
+        <v>263.6413529628273</v>
       </c>
       <c r="L17" t="n">
-        <v>388.3709755917783</v>
+        <v>424.9751727124878</v>
       </c>
       <c r="M17" t="n">
         <v>488.232716983989</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>78.09392094765776</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>261.3594073266536</v>
@@ -35974,7 +35974,7 @@
         <v>535.1616165711022</v>
       </c>
       <c r="N18" t="n">
-        <v>390.6872372759628</v>
+        <v>564.8800268895909</v>
       </c>
       <c r="O18" t="n">
         <v>448.4437363398768</v>
@@ -35983,7 +35983,7 @@
         <v>343.3231681748708</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.4206959278033</v>
+        <v>81.32182726183353</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.9215532107137</v>
+        <v>81.31735609000411</v>
       </c>
       <c r="K20" t="n">
         <v>300.2455500835368</v>
@@ -36132,7 +36132,7 @@
         <v>488.232716983989</v>
       </c>
       <c r="N20" t="n">
-        <v>443.854721522065</v>
+        <v>480.4589186427746</v>
       </c>
       <c r="O20" t="n">
         <v>407.0894383576126</v>
@@ -36214,10 +36214,10 @@
         <v>564.8800268895909</v>
       </c>
       <c r="O21" t="n">
-        <v>274.2509467262488</v>
+        <v>448.4437363398768</v>
       </c>
       <c r="P21" t="n">
-        <v>343.3231681748708</v>
+        <v>169.130378561243</v>
       </c>
       <c r="Q21" t="n">
         <v>177.4206959278033</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>78.09392094765776</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>261.3594073266536</v>
+        <v>165.2605386606834</v>
       </c>
       <c r="L24" t="n">
         <v>412.8942263626366</v>
@@ -36454,7 +36454,7 @@
         <v>448.4437363398768</v>
       </c>
       <c r="P24" t="n">
-        <v>169.130378561243</v>
+        <v>343.3231681748708</v>
       </c>
       <c r="Q24" t="n">
         <v>177.4206959278033</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>78.09392094765776</v>
       </c>
       <c r="K27" t="n">
         <v>261.3594073266536</v>
       </c>
       <c r="L27" t="n">
-        <v>316.7953576966668</v>
+        <v>412.8942263626366</v>
       </c>
       <c r="M27" t="n">
         <v>535.1616165711022</v>
       </c>
       <c r="N27" t="n">
-        <v>564.8800268895909</v>
+        <v>390.6872372759634</v>
       </c>
       <c r="O27" t="n">
         <v>448.4437363398768</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>78.09392094765776</v>
       </c>
       <c r="K30" t="n">
         <v>261.3594073266536</v>
       </c>
       <c r="L30" t="n">
-        <v>316.7953576966664</v>
+        <v>412.8942263626366</v>
       </c>
       <c r="M30" t="n">
         <v>535.1616165711022</v>
@@ -36931,7 +36931,7 @@
         <v>343.3231681748708</v>
       </c>
       <c r="Q30" t="n">
-        <v>177.4206959278033</v>
+        <v>3.227906314175999</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>261.3594073266536</v>
+        <v>165.2605386606839</v>
       </c>
       <c r="L33" t="n">
-        <v>316.7953576966664</v>
+        <v>412.8942263626366</v>
       </c>
       <c r="M33" t="n">
         <v>535.1616165711022</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>81.31735609000413</v>
+        <v>81.31735609000503</v>
       </c>
       <c r="K35" t="n">
         <v>300.2455500835368</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>78.09392094765776</v>
       </c>
       <c r="K36" t="n">
         <v>261.3594073266536</v>
@@ -37393,7 +37393,7 @@
         <v>412.8942263626366</v>
       </c>
       <c r="M36" t="n">
-        <v>535.1616165711022</v>
+        <v>360.9688269574743</v>
       </c>
       <c r="N36" t="n">
         <v>564.8800268895909</v>
@@ -37405,7 +37405,7 @@
         <v>343.3231681748708</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.32182726183353</v>
+        <v>177.4206959278033</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>407.0894383576126</v>
       </c>
       <c r="P38" t="n">
-        <v>273.5253078795768</v>
+        <v>273.5253078795777</v>
       </c>
       <c r="Q38" t="n">
         <v>154.9353510558723</v>
@@ -37633,10 +37633,10 @@
         <v>535.1616165711022</v>
       </c>
       <c r="N39" t="n">
-        <v>564.8800268895909</v>
+        <v>390.6872372759628</v>
       </c>
       <c r="O39" t="n">
-        <v>274.2509467262488</v>
+        <v>448.4437363398768</v>
       </c>
       <c r="P39" t="n">
         <v>343.3231681748708</v>
@@ -37785,7 +37785,7 @@
         <v>300.2455500835368</v>
       </c>
       <c r="L41" t="n">
-        <v>424.9751727124878</v>
+        <v>388.3709755917783</v>
       </c>
       <c r="M41" t="n">
         <v>488.232716983989</v>
@@ -37797,7 +37797,7 @@
         <v>407.0894383576126</v>
       </c>
       <c r="P41" t="n">
-        <v>273.5253078795768</v>
+        <v>310.1295050002865</v>
       </c>
       <c r="Q41" t="n">
         <v>154.9353510558723</v>
@@ -37861,7 +37861,7 @@
         <v>78.09392094765776</v>
       </c>
       <c r="K42" t="n">
-        <v>87.1666177130257</v>
+        <v>261.3594073266536</v>
       </c>
       <c r="L42" t="n">
         <v>412.8942263626366</v>
@@ -37870,7 +37870,7 @@
         <v>535.1616165711022</v>
       </c>
       <c r="N42" t="n">
-        <v>564.8800268895909</v>
+        <v>390.6872372759628</v>
       </c>
       <c r="O42" t="n">
         <v>448.4437363398768</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>81.31735609000411</v>
+        <v>117.9215532107137</v>
       </c>
       <c r="K44" t="n">
         <v>300.2455500835368</v>
@@ -38034,7 +38034,7 @@
         <v>407.0894383576126</v>
       </c>
       <c r="P44" t="n">
-        <v>310.1295050002865</v>
+        <v>273.5253078795768</v>
       </c>
       <c r="Q44" t="n">
         <v>154.9353510558723</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>78.09392094765776</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>261.3594073266536</v>
@@ -38104,7 +38104,7 @@
         <v>412.8942263626366</v>
       </c>
       <c r="M45" t="n">
-        <v>535.1616165711022</v>
+        <v>439.062747905132</v>
       </c>
       <c r="N45" t="n">
         <v>564.8800268895909</v>
@@ -38116,7 +38116,7 @@
         <v>343.3231681748708</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.227906314175539</v>
+        <v>177.4206959278033</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
